--- a/config/biofuel_capacity_parameters.xlsx
+++ b/config/biofuel_capacity_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9655D2B5-35CE-4D72-AC2A-F31C0EA6AA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C54A23-D8F6-46A0-8650-055FC771AEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">simplified_economy_fuels!$A$1:$C$226</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,13 +74,14 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Explanation of Methods:
+          <t xml:space="preserve">Explanation of Methods:
+-do_nothing : will do nothing. Ideal if you wat complete control over capcity. 
 - satisfy_all_demand_with_domestic_production:
-    The economy satisfies all demand for a fuel with domestic production. This eliminates imports and exports, making the economy self-sufficient.
+    The economy satisfies all demand for a fuel with domestic production. This eliminates imports and exports, making the economy self-sufficient.. If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code only adjusts prodcution if its LESS THAN CONSUMPTION. If the capacity that is recorded is more than consumption then it will jsut mean there are exports. 
 - satisfy_all_demand_with_domestic_production_RAMP:
-    Gradually increases domestic production over time to meet 100% of demand, avoiding sudden jumps in production.
+    Gradually increases domestic production over time to meet 100% of demand, avoiding sudden jumps in production. If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code only adjusts prodcution if its LESS THAN CONSUMPTION. If the capacity that is recorded is more than consumption then it will jsut mean there are exports. 
 - keep_same_ratio_of_production_to_consumption:
-    Maintains the existing ratio of exports, imports, and production, while ensuring all demand is met with domestic production.</t>
+    Maintains the existing ratio of exports, imports, and production, while ensuring all demand is met with domestic production. If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code will throw an error because it would otherwise overwrite that data to make the ratio of production to consumption the same for all years. </t>
         </r>
       </text>
     </comment>
@@ -76,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="57">
   <si>
     <t>EBT_biofuels_list</t>
   </si>
@@ -245,6 +259,9 @@
   <si>
     <t>other_biomass</t>
   </si>
+  <si>
+    <t>do_nothing</t>
+  </si>
 </sst>
 </file>
 
@@ -262,6 +279,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,11 +317,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1455,9 +1476,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1483,22 +1506,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.3869907539859128</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1506,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.1225694700972362</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1517,328 +1540,128 @@
       <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="F3">
-        <v>2022</v>
+      <c r="F3" s="2">
+        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.0263218139073729</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6.4334279185486025</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2026</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6.3814671262608726</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2027</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7.2043774337811719</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2023</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>7.0805281123867445</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2024</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5.0658715366320806</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19">
-        <v>2022</v>
+      <c r="F9" s="2">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -6903,8 +6726,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6964,7 +6787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -6975,7 +6798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -6986,7 +6809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -6997,7 +6820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -7008,7 +6831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -7019,7 +6842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -7030,7 +6853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -7041,7 +6864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -7063,7 +6886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -7074,7 +6897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -7085,7 +6908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -7096,7 +6919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -7107,7 +6930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -7118,7 +6941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -7129,7 +6952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -7140,7 +6963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -7151,7 +6974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -7162,7 +6985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -7173,7 +6996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -7184,7 +7007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -7239,7 +7062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -7250,7 +7073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -7261,7 +7084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -7272,7 +7095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -7283,7 +7106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -7294,7 +7117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -7305,7 +7128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -7316,7 +7139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -7335,10 +7158,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -7349,7 +7172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -7360,7 +7183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -7371,7 +7194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -7382,7 +7205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -7393,7 +7216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -7404,7 +7227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -7415,7 +7238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -7426,7 +7249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -7437,7 +7260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -7448,7 +7271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -7459,7 +7282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -7514,7 +7337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -7525,7 +7348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -7536,7 +7359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -7547,7 +7370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -7558,7 +7381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -7569,7 +7392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -7580,7 +7403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -7591,7 +7414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -7613,7 +7436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -7624,7 +7447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -7635,7 +7458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -7646,7 +7469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -7657,7 +7480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -7668,7 +7491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -7679,7 +7502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -7690,7 +7513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -7701,7 +7524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -7712,7 +7535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -7723,7 +7546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -7734,7 +7557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -7789,7 +7612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -7800,7 +7623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -7811,7 +7634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>25</v>
       </c>
@@ -7822,7 +7645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -7833,7 +7656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -7844,7 +7667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -7855,7 +7678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -7866,7 +7689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -7888,7 +7711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -7899,7 +7722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -7910,7 +7733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -7921,7 +7744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>35</v>
       </c>
@@ -7932,7 +7755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -7943,7 +7766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -7954,7 +7777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>38</v>
       </c>
@@ -7965,7 +7788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -7976,7 +7799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>40</v>
       </c>
@@ -7987,7 +7810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>41</v>
       </c>
@@ -7998,7 +7821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -8009,7 +7832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -8064,7 +7887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -8075,7 +7898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -8086,7 +7909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -8097,7 +7920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -8108,7 +7931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -8119,7 +7942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>28</v>
       </c>
@@ -8130,7 +7953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -8141,7 +7964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -8163,7 +7986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -8174,7 +7997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -8185,7 +8008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>34</v>
       </c>
@@ -8196,7 +8019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>35</v>
       </c>
@@ -8207,7 +8030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -8218,7 +8041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -8229,7 +8052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -8240,7 +8063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -8251,7 +8074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>40</v>
       </c>
@@ -8262,7 +8085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -8273,7 +8096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>42</v>
       </c>
@@ -8284,7 +8107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>43</v>
       </c>
@@ -8339,7 +8162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -8350,7 +8173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -8361,7 +8184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>25</v>
       </c>
@@ -8372,7 +8195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -8383,7 +8206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -8394,7 +8217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>28</v>
       </c>
@@ -8405,7 +8228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>29</v>
       </c>
@@ -8416,7 +8239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -8438,7 +8261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -8449,7 +8272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -8460,7 +8283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>34</v>
       </c>
@@ -8471,7 +8294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -8482,7 +8305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -8493,7 +8316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -8504,7 +8327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>38</v>
       </c>
@@ -8515,7 +8338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -8526,7 +8349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>40</v>
       </c>
@@ -8537,7 +8360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>41</v>
       </c>
@@ -8548,7 +8371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -8559,7 +8382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>43</v>
       </c>
@@ -8614,7 +8437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -8625,7 +8448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -8636,7 +8459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>25</v>
       </c>
@@ -8647,7 +8470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -8658,7 +8481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>27</v>
       </c>
@@ -8669,7 +8492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>28</v>
       </c>
@@ -8680,7 +8503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>29</v>
       </c>
@@ -8691,7 +8514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>30</v>
       </c>
@@ -8713,7 +8536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -8724,7 +8547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -8735,7 +8558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>34</v>
       </c>
@@ -8746,7 +8569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>35</v>
       </c>
@@ -8757,7 +8580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -8768,7 +8591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -8779,7 +8602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>38</v>
       </c>
@@ -8790,7 +8613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -8801,7 +8624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>40</v>
       </c>
@@ -8812,7 +8635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>41</v>
       </c>
@@ -8823,7 +8646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -8834,7 +8657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>43</v>
       </c>
@@ -8889,7 +8712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -8900,7 +8723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>24</v>
       </c>
@@ -8911,7 +8734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>25</v>
       </c>
@@ -8922,7 +8745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>26</v>
       </c>
@@ -8933,7 +8756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -8944,7 +8767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>28</v>
       </c>
@@ -8955,7 +8778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>29</v>
       </c>
@@ -8966,7 +8789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>30</v>
       </c>
@@ -8988,7 +8811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>32</v>
       </c>
@@ -8999,7 +8822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>33</v>
       </c>
@@ -9010,7 +8833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>34</v>
       </c>
@@ -9021,7 +8844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>35</v>
       </c>
@@ -9032,7 +8855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>36</v>
       </c>
@@ -9043,7 +8866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>37</v>
       </c>
@@ -9054,7 +8877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>38</v>
       </c>
@@ -9065,7 +8888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>39</v>
       </c>
@@ -9076,7 +8899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>40</v>
       </c>
@@ -9087,7 +8910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>41</v>
       </c>
@@ -9098,7 +8921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>42</v>
       </c>
@@ -9109,7 +8932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>43</v>
       </c>
@@ -9164,7 +8987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -9175,7 +8998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -9186,7 +9009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>25</v>
       </c>
@@ -9197,7 +9020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -9208,7 +9031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>27</v>
       </c>
@@ -9219,7 +9042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -9230,7 +9053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>29</v>
       </c>
@@ -9241,7 +9064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -9263,7 +9086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>32</v>
       </c>
@@ -9274,7 +9097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>33</v>
       </c>
@@ -9285,7 +9108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>34</v>
       </c>
@@ -9296,7 +9119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>35</v>
       </c>
@@ -9307,7 +9130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>36</v>
       </c>
@@ -9318,7 +9141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>37</v>
       </c>
@@ -9329,7 +9152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>38</v>
       </c>
@@ -9340,7 +9163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>39</v>
       </c>
@@ -9351,7 +9174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>40</v>
       </c>
@@ -9362,7 +9185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>41</v>
       </c>
@@ -9373,7 +9196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>42</v>
       </c>
@@ -9384,7 +9207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>43</v>
       </c>
@@ -9399,37 +9222,13 @@
   <autoFilter ref="A1:C226" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="01_AUS"/>
-        <filter val="02_BD"/>
-        <filter val="03_CDA"/>
-        <filter val="04_CHL"/>
-        <filter val="05_PRC"/>
-        <filter val="06_HKC"/>
-        <filter val="07_INA"/>
-        <filter val="08_JPN"/>
         <filter val="09_ROK"/>
-        <filter val="10_MAS"/>
-        <filter val="11_MEX"/>
-        <filter val="12_NZ"/>
-        <filter val="13_PNG"/>
-        <filter val="14_PE"/>
-        <filter val="15_PHL"/>
-        <filter val="16_RUS"/>
-        <filter val="17_SGP"/>
-        <filter val="18_CT"/>
-        <filter val="19_THA"/>
-        <filter val="20_USA"/>
-        <filter val="21_VN"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="keep_same_ratio_of_production_to_consumption"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9437,9 +9236,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -9828,11 +9634,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -10213,6 +10024,30 @@
       <c r="F19">
         <v>2022</v>
       </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config/biofuel_capacity_parameters.xlsx
+++ b/config/biofuel_capacity_parameters.xlsx
@@ -1,47 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9655D2B5-35CE-4D72-AC2A-F31C0EA6AA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07D9A1D-59DE-4878-A62E-BEFDF8F8984D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="19380" windowHeight="9850" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="utilisation_rate" sheetId="2" r:id="rId2"/>
     <sheet name="simplified_economy_fuels" sheetId="3" r:id="rId3"/>
-    <sheet name="01_AUS_capacity" sheetId="4" r:id="rId4"/>
-    <sheet name="02_BD_capacity" sheetId="5" r:id="rId5"/>
-    <sheet name="03_CDA_capacity" sheetId="6" r:id="rId6"/>
-    <sheet name="04_CHL_capacity" sheetId="7" r:id="rId7"/>
-    <sheet name="05_PRC_capacity" sheetId="8" r:id="rId8"/>
-    <sheet name="06_HKC_capacity" sheetId="9" r:id="rId9"/>
-    <sheet name="07_INA_capacity" sheetId="10" r:id="rId10"/>
-    <sheet name="08_JPN_capacity" sheetId="11" r:id="rId11"/>
-    <sheet name="09_ROK_capacity" sheetId="12" r:id="rId12"/>
-    <sheet name="10_MAS_capacity" sheetId="13" r:id="rId13"/>
-    <sheet name="11_MEX_capacity" sheetId="14" r:id="rId14"/>
-    <sheet name="12_NZ_capacity" sheetId="15" r:id="rId15"/>
-    <sheet name="13_PNG_capacity" sheetId="16" r:id="rId16"/>
-    <sheet name="14_PE_capacity" sheetId="17" r:id="rId17"/>
-    <sheet name="15_PHL_capacity" sheetId="18" r:id="rId18"/>
-    <sheet name="16_RUS_capacity" sheetId="19" r:id="rId19"/>
-    <sheet name="17_SGP_capacity" sheetId="20" r:id="rId20"/>
-    <sheet name="18_CT_capacity" sheetId="21" r:id="rId21"/>
-    <sheet name="19_THA_capacity" sheetId="22" r:id="rId22"/>
-    <sheet name="20_USA_capacity" sheetId="23" r:id="rId23"/>
-    <sheet name="21_VN_capacity" sheetId="24" r:id="rId24"/>
+    <sheet name="00_MARS_capacity" sheetId="25" r:id="rId4"/>
+    <sheet name="01_AUS_capacity" sheetId="4" r:id="rId5"/>
+    <sheet name="02_BD_capacity" sheetId="5" r:id="rId6"/>
+    <sheet name="03_CDA_capacity" sheetId="6" r:id="rId7"/>
+    <sheet name="04_CHL_capacity" sheetId="7" r:id="rId8"/>
+    <sheet name="05_PRC_capacity" sheetId="8" r:id="rId9"/>
+    <sheet name="06_HKC_capacity" sheetId="9" r:id="rId10"/>
+    <sheet name="07_INA_capacity" sheetId="10" r:id="rId11"/>
+    <sheet name="08_JPN_capacity" sheetId="11" r:id="rId12"/>
+    <sheet name="09_ROK_capacity" sheetId="12" r:id="rId13"/>
+    <sheet name="10_MAS_capacity" sheetId="13" r:id="rId14"/>
+    <sheet name="11_MEX_capacity" sheetId="14" r:id="rId15"/>
+    <sheet name="12_NZ_capacity" sheetId="15" r:id="rId16"/>
+    <sheet name="13_PNG_capacity" sheetId="16" r:id="rId17"/>
+    <sheet name="14_PE_capacity" sheetId="17" r:id="rId18"/>
+    <sheet name="15_PHL_capacity" sheetId="18" r:id="rId19"/>
+    <sheet name="16_RUS_capacity" sheetId="19" r:id="rId20"/>
+    <sheet name="17_SGP_capacity" sheetId="20" r:id="rId21"/>
+    <sheet name="18_CT_capacity" sheetId="21" r:id="rId22"/>
+    <sheet name="19_THA_capacity" sheetId="22" r:id="rId23"/>
+    <sheet name="20_USA_capacity" sheetId="23" r:id="rId24"/>
+    <sheet name="21_VN_capacity" sheetId="24" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">simplified_economy_fuels!$A$1:$C$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">simplified_economy_fuels!$A$1:$C$199</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,13 +75,16 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Explanation of Methods:
+          <t xml:space="preserve">Explanation of Methods:
+-do_nothing : will do nothing. Ideal if you wat complete control over capcity. 
 - satisfy_all_demand_with_domestic_production:
-    The economy satisfies all demand for a fuel with domestic production. This eliminates imports and exports, making the economy self-sufficient.
+    The economy satisfies all demand for a fuel with domestic production. This eliminates imports and exports, making the economy self-sufficient.. If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code only adjusts prodcution if its LESS THAN CONSUMPTION. If the capacity that is recorded is more than consumption then it will jsut mean there are exports. 
 - satisfy_all_demand_with_domestic_production_RAMP:
-    Gradually increases domestic production over time to meet 100% of demand, avoiding sudden jumps in production.
+    Gradually increases domestic production over time to meet 100% of demand, avoiding sudden jumps in production. If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code only adjusts prodcution if its LESS THAN CONSUMPTION. If the capacity that is recorded is more than consumption then it will jsut mean there are exports. 
+- satisfy_all_demand_with_domestic_production_EXACT:
+    The economy satisfies all demand for a fuel with domestic production. This eliminates imports and exports, making the economy self-sufficient. It will also make it so production EXACTLY matches consumotion, so that even if production from previous years was more than consumption now, the production will decrease to match consumption (which would not happen in the other versions of this method).  If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code will adjust this if it needs to make production match consumption.
 - keep_same_ratio_of_production_to_consumption:
-    Maintains the existing ratio of exports, imports, and production, while ensuring all demand is met with domestic production.</t>
+    Maintains the existing ratio of exports, imports, and production, while ensuring all demand is met with domestic production. If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code will throw an error because it would otherwise overwrite that data to make the ratio of production to consumption the same for all years. </t>
         </r>
       </text>
     </comment>
@@ -76,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="59">
   <si>
     <t>EBT_biofuels_list</t>
   </si>
@@ -245,6 +262,15 @@
   <si>
     <t>other_biomass</t>
   </si>
+  <si>
+    <t>do_nothing</t>
+  </si>
+  <si>
+    <t>satisfy_all_demand_with_domestic_production_EXACT</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
 </sst>
 </file>
 
@@ -262,6 +288,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -295,13 +322,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -608,7 +650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -668,6 +712,399 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -1060,7 +1497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -1453,11 +1890,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1483,22 +1922,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.3869907539859128</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1506,10 +1945,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.1225694700972362</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1517,328 +1956,128 @@
       <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="F3">
-        <v>2022</v>
+      <c r="F3" s="2">
+        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.0263218139073729</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6.4334279185486025</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2026</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6.3814671262608726</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2027</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7.2043774337811719</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2023</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>7.0805281123867445</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2024</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5.0658715366320806</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19">
-        <v>2022</v>
+      <c r="F9" s="2">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -1846,7 +2085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2239,7 +2478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2632,7 +2871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3025,7 +3264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3418,7 +3657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3811,7 +4050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -4204,7 +4443,383 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>2022</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>2022</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2030</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -4597,343 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>2022</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>2022</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>2022</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>2022</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>2022</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>2022</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>2022</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>2022</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>2022</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>2022</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>2022</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>2022</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>2022</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>2022</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>2022</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>2022</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -5326,7 +5605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -5719,7 +5998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -6112,7 +6391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -6505,7 +6784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -6901,2545 +7180,2458 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>35</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>38</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>38</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>38</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>38</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>38</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>39</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>39</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>39</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>40</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>40</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>41</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>41</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>41</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>41</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>41</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>42</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>42</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>42</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>42</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>42</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>42</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>42</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>42</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>43</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>43</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>43</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>43</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>43</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>43</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>43</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>43</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>43</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C199" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="09_ROK"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C190">
+      <sortCondition ref="A1:A190"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A5CB3-5D4A-4441-A312-D5874411D0D3}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2.3869907539859128</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.1225694700972362</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.0263218139073729</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>6.4334279185486025</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>6.3814671262608726</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>7.2043774337811719</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>7.0805281123867445</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>5.0658715366320806</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>31</v>
-      </c>
-      <c r="B89" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>39</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B99" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>42</v>
-      </c>
-      <c r="B100" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>43</v>
-      </c>
-      <c r="B101" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>19</v>
-      </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>19</v>
-      </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>19</v>
-      </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>19</v>
-      </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>24</v>
-      </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>26</v>
-      </c>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>27</v>
-      </c>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>28</v>
-      </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>29</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>30</v>
-      </c>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>31</v>
-      </c>
-      <c r="B114" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>32</v>
-      </c>
-      <c r="B115" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>33</v>
-      </c>
-      <c r="B116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>35</v>
-      </c>
-      <c r="B118" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>36</v>
-      </c>
-      <c r="B119" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>37</v>
-      </c>
-      <c r="B120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>38</v>
-      </c>
-      <c r="B121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>39</v>
-      </c>
-      <c r="B122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>40</v>
-      </c>
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>41</v>
-      </c>
-      <c r="B124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>42</v>
-      </c>
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>43</v>
-      </c>
-      <c r="B126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>19</v>
-      </c>
-      <c r="B127" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>19</v>
-      </c>
-      <c r="B128" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>19</v>
-      </c>
-      <c r="B129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>19</v>
-      </c>
-      <c r="B130" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>24</v>
-      </c>
-      <c r="B132" t="s">
-        <v>6</v>
-      </c>
-      <c r="C132" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>25</v>
-      </c>
-      <c r="B133" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>26</v>
-      </c>
-      <c r="B134" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B135" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>28</v>
-      </c>
-      <c r="B136" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>29</v>
-      </c>
-      <c r="B137" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>30</v>
-      </c>
-      <c r="B138" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>31</v>
-      </c>
-      <c r="B139" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>32</v>
-      </c>
-      <c r="B140" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>33</v>
-      </c>
-      <c r="B141" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>34</v>
-      </c>
-      <c r="B142" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>35</v>
-      </c>
-      <c r="B143" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>36</v>
-      </c>
-      <c r="B144" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>37</v>
-      </c>
-      <c r="B145" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>38</v>
-      </c>
-      <c r="B146" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>39</v>
-      </c>
-      <c r="B147" t="s">
-        <v>6</v>
-      </c>
-      <c r="C147" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>40</v>
-      </c>
-      <c r="B148" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>41</v>
-      </c>
-      <c r="B149" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>42</v>
-      </c>
-      <c r="B150" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>43</v>
-      </c>
-      <c r="B151" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>19</v>
-      </c>
-      <c r="B152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>19</v>
-      </c>
-      <c r="B154" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>19</v>
-      </c>
-      <c r="B155" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>15</v>
-      </c>
-      <c r="B156" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>24</v>
-      </c>
-      <c r="B157" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>25</v>
-      </c>
-      <c r="B158" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>26</v>
-      </c>
-      <c r="B159" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>27</v>
-      </c>
-      <c r="B160" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>28</v>
-      </c>
-      <c r="B161" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>29</v>
-      </c>
-      <c r="B162" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>30</v>
-      </c>
-      <c r="B163" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>31</v>
-      </c>
-      <c r="B164" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>32</v>
-      </c>
-      <c r="B165" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>33</v>
-      </c>
-      <c r="B166" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>34</v>
-      </c>
-      <c r="B167" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>35</v>
-      </c>
-      <c r="B168" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>36</v>
-      </c>
-      <c r="B169" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>37</v>
-      </c>
-      <c r="B170" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>38</v>
-      </c>
-      <c r="B171" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>39</v>
-      </c>
-      <c r="B172" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>40</v>
-      </c>
-      <c r="B173" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>41</v>
-      </c>
-      <c r="B174" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>42</v>
-      </c>
-      <c r="B175" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>43</v>
-      </c>
-      <c r="B176" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B177" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>19</v>
-      </c>
-      <c r="B178" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>19</v>
-      </c>
-      <c r="B179" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>19</v>
-      </c>
-      <c r="B180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>15</v>
-      </c>
-      <c r="B181" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>24</v>
-      </c>
-      <c r="B182" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>25</v>
-      </c>
-      <c r="B183" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>26</v>
-      </c>
-      <c r="B184" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>27</v>
-      </c>
-      <c r="B185" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>28</v>
-      </c>
-      <c r="B186" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>29</v>
-      </c>
-      <c r="B187" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>30</v>
-      </c>
-      <c r="B188" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>31</v>
-      </c>
-      <c r="B189" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>32</v>
-      </c>
-      <c r="B190" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>33</v>
-      </c>
-      <c r="B191" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>34</v>
-      </c>
-      <c r="B192" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>35</v>
-      </c>
-      <c r="B193" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>36</v>
-      </c>
-      <c r="B194" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>37</v>
-      </c>
-      <c r="B195" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>38</v>
-      </c>
-      <c r="B196" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>39</v>
-      </c>
-      <c r="B197" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>40</v>
-      </c>
-      <c r="B198" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>41</v>
-      </c>
-      <c r="B199" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>42</v>
-      </c>
-      <c r="B200" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>43</v>
-      </c>
-      <c r="B201" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>19</v>
-      </c>
-      <c r="B202" t="s">
-        <v>9</v>
-      </c>
-      <c r="C202" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>19</v>
-      </c>
-      <c r="B203" t="s">
-        <v>9</v>
-      </c>
-      <c r="C203" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>19</v>
-      </c>
-      <c r="B204" t="s">
-        <v>9</v>
-      </c>
-      <c r="C204" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>19</v>
-      </c>
-      <c r="B205" t="s">
-        <v>9</v>
-      </c>
-      <c r="C205" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>15</v>
-      </c>
-      <c r="B206" t="s">
-        <v>9</v>
-      </c>
-      <c r="C206" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>24</v>
-      </c>
-      <c r="B207" t="s">
-        <v>9</v>
-      </c>
-      <c r="C207" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>25</v>
-      </c>
-      <c r="B208" t="s">
-        <v>9</v>
-      </c>
-      <c r="C208" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>26</v>
-      </c>
-      <c r="B209" t="s">
-        <v>9</v>
-      </c>
-      <c r="C209" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>27</v>
-      </c>
-      <c r="B210" t="s">
-        <v>9</v>
-      </c>
-      <c r="C210" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>28</v>
-      </c>
-      <c r="B211" t="s">
-        <v>9</v>
-      </c>
-      <c r="C211" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>29</v>
-      </c>
-      <c r="B212" t="s">
-        <v>9</v>
-      </c>
-      <c r="C212" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>30</v>
-      </c>
-      <c r="B213" t="s">
-        <v>9</v>
-      </c>
-      <c r="C213" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>31</v>
-      </c>
-      <c r="B214" t="s">
-        <v>9</v>
-      </c>
-      <c r="C214" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>32</v>
-      </c>
-      <c r="B215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C215" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>33</v>
-      </c>
-      <c r="B216" t="s">
-        <v>9</v>
-      </c>
-      <c r="C216" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>34</v>
-      </c>
-      <c r="B217" t="s">
-        <v>9</v>
-      </c>
-      <c r="C217" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>35</v>
-      </c>
-      <c r="B218" t="s">
-        <v>9</v>
-      </c>
-      <c r="C218" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>36</v>
-      </c>
-      <c r="B219" t="s">
-        <v>9</v>
-      </c>
-      <c r="C219" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>37</v>
-      </c>
-      <c r="B220" t="s">
-        <v>9</v>
-      </c>
-      <c r="C220" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>38</v>
-      </c>
-      <c r="B221" t="s">
-        <v>9</v>
-      </c>
-      <c r="C221" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>39</v>
-      </c>
-      <c r="B222" t="s">
-        <v>9</v>
-      </c>
-      <c r="C222" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>40</v>
-      </c>
-      <c r="B223" t="s">
-        <v>9</v>
-      </c>
-      <c r="C223" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>41</v>
-      </c>
-      <c r="B224" t="s">
-        <v>9</v>
-      </c>
-      <c r="C224" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>42</v>
-      </c>
-      <c r="B225" t="s">
-        <v>9</v>
-      </c>
-      <c r="C225" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>43</v>
-      </c>
-      <c r="B226" t="s">
-        <v>9</v>
-      </c>
-      <c r="C226" t="s">
-        <v>20</v>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C226" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="01_AUS"/>
-        <filter val="02_BD"/>
-        <filter val="03_CDA"/>
-        <filter val="04_CHL"/>
-        <filter val="05_PRC"/>
-        <filter val="06_HKC"/>
-        <filter val="07_INA"/>
-        <filter val="08_JPN"/>
-        <filter val="09_ROK"/>
-        <filter val="10_MAS"/>
-        <filter val="11_MEX"/>
-        <filter val="12_NZ"/>
-        <filter val="13_PNG"/>
-        <filter val="14_PE"/>
-        <filter val="15_PHL"/>
-        <filter val="16_RUS"/>
-        <filter val="17_SGP"/>
-        <filter val="18_CT"/>
-        <filter val="19_THA"/>
-        <filter val="20_USA"/>
-        <filter val="21_VN"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="keep_same_ratio_of_production_to_consumption"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -9810,399 +10002,6 @@
       </c>
       <c r="C19" t="s">
         <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19">
-        <v>2022</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -10220,6 +10019,428 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F28" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -10612,7 +10833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -11005,7 +11226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -11396,397 +11617,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19">
-        <v>2022</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/config/biofuel_capacity_parameters.xlsx
+++ b/config/biofuel_capacity_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07D9A1D-59DE-4878-A62E-BEFDF8F8984D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0402FC70-A044-4734-9053-591B7F6EE571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19380" windowHeight="9850" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="1380" windowWidth="21600" windowHeight="11235" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="59">
   <si>
     <t>EBT_biofuels_list</t>
   </si>
@@ -337,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -346,6 +346,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,6 +362,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFABA03-2EC3-32B6-BF72-703D321907F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="419100"/>
+          <a:ext cx="2971800" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Please note that it is assumed that all</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> utilisation rates begin at 1 in the base year of the modelling. This is not strictly accurate but makes the code less complicated.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,54 +735,54 @@
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -717,9 +798,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -739,7 +820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -759,7 +840,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -779,7 +860,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -799,7 +880,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -819,7 +900,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -839,7 +920,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -859,7 +940,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -879,7 +960,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -899,7 +980,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -919,7 +1000,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -939,7 +1020,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -959,7 +1040,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -979,7 +1060,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -999,7 +1080,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1100,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1120,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1140,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1079,7 +1160,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1110,9 +1191,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1132,7 +1213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1233,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1172,7 +1253,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1273,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1293,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1313,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1333,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1353,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1292,7 +1373,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1393,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1413,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +1433,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1372,7 +1453,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1473,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1412,7 +1493,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1432,7 +1513,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1452,7 +1533,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1553,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1503,9 +1584,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1525,7 +1606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +1626,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1646,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1585,7 +1666,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1605,7 +1686,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1706,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1726,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1746,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1685,7 +1766,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1705,7 +1786,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1725,7 +1806,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1745,7 +1826,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1846,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1785,7 +1866,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1805,7 +1886,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1906,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1845,7 +1926,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1865,7 +1946,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1898,9 +1979,9 @@
       <selection activeCell="A2" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1920,7 +2001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1940,7 +2021,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1960,7 +2041,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +2061,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2000,7 +2081,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2101,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2040,7 +2121,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2060,7 +2141,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2091,9 +2172,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -2113,7 +2194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2133,7 +2214,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2153,7 +2234,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2173,7 +2254,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2274,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2213,7 +2294,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2233,7 +2314,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2253,7 +2334,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2273,7 +2354,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2293,7 +2374,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +2394,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +2414,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2353,7 +2434,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2373,7 +2454,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +2474,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2413,7 +2494,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2433,7 +2514,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2453,7 +2534,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2484,9 +2565,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -2506,7 +2587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2526,7 +2607,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2546,7 +2627,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2566,7 +2647,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2586,7 +2667,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2606,7 +2687,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2626,7 +2707,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2646,7 +2727,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2666,7 +2747,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2686,7 +2767,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2706,7 +2787,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2726,7 +2807,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2746,7 +2827,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2766,7 +2847,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2786,7 +2867,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2806,7 +2887,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2826,7 +2907,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2846,7 +2927,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2877,9 +2958,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -2899,7 +2980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2919,7 +3000,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2939,7 +3020,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2959,7 +3040,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2979,7 +3060,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2999,7 +3080,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3019,7 +3100,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3120,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3059,7 +3140,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3079,7 +3160,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3099,7 +3180,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3119,7 +3200,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3139,7 +3220,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3159,7 +3240,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3179,7 +3260,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3199,7 +3280,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3219,7 +3300,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3239,7 +3320,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3270,9 +3351,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3292,7 +3373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3312,7 +3393,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3332,7 +3413,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3352,7 +3433,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3372,7 +3453,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3392,7 +3473,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3412,7 +3493,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3432,7 +3513,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3452,7 +3533,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3472,7 +3553,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3492,7 +3573,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3512,7 +3593,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3532,7 +3613,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3552,7 +3633,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3572,7 +3653,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3592,7 +3673,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3612,7 +3693,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3632,7 +3713,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3663,9 +3744,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3685,7 +3766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3705,7 +3786,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3725,7 +3806,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3745,7 +3826,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3765,7 +3846,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3785,7 +3866,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3805,7 +3886,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3825,7 +3906,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3845,7 +3926,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3865,7 +3946,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3885,7 +3966,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3905,7 +3986,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3925,7 +4006,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3945,7 +4026,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3965,7 +4046,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3985,7 +4066,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4005,7 +4086,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4025,7 +4106,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -4056,9 +4137,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4078,7 +4159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4098,7 +4179,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4118,7 +4199,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4219,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4158,7 +4239,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4178,7 +4259,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4198,7 +4279,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4218,7 +4299,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4238,7 +4319,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4258,7 +4339,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -4278,7 +4359,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4298,7 +4379,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -4318,7 +4399,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4338,7 +4419,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -4358,7 +4439,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4378,7 +4459,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4398,7 +4479,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4418,7 +4499,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -4447,13 +4528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4473,7 +4554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4490,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4507,7 +4588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4524,7 +4605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4541,7 +4622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4558,7 +4639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4575,7 +4656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4592,7 +4673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4609,7 +4690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4626,7 +4707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4643,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4660,7 +4741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4677,7 +4758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4694,7 +4775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -4711,7 +4792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4728,7 +4809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4745,7 +4826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4762,7 +4843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -4779,9 +4860,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0.9</v>
@@ -4793,13 +4874,13 @@
         <v>2021</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>0.1</v>
@@ -4811,11 +4892,12 @@
         <v>2030</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4825,9 +4907,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4847,7 +4929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4867,7 +4949,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4887,7 +4969,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4907,7 +4989,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4927,7 +5009,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4947,7 +5029,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4967,7 +5049,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4987,7 +5069,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5007,7 +5089,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5027,7 +5109,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5047,7 +5129,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5067,7 +5149,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -5087,7 +5169,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5107,7 +5189,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -5127,7 +5209,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -5147,7 +5229,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -5167,7 +5249,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -5187,7 +5269,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5218,9 +5300,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5240,7 +5322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5260,7 +5342,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5280,7 +5362,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5300,7 +5382,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5320,7 +5402,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5340,7 +5422,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5360,7 +5442,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5380,7 +5462,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5400,7 +5482,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5420,7 +5502,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5440,7 +5522,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5460,7 +5542,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -5480,7 +5562,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5500,7 +5582,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -5520,7 +5602,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -5540,7 +5622,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -5560,7 +5642,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5662,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5611,9 +5693,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5633,7 +5715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5653,7 +5735,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5673,7 +5755,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5693,7 +5775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5713,7 +5795,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5733,7 +5815,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5753,7 +5835,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5773,7 +5855,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5793,7 +5875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5813,7 +5895,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5833,7 +5915,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5853,7 +5935,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -5873,7 +5955,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5893,7 +5975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -5913,7 +5995,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -5933,7 +6015,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -5953,7 +6035,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -5973,7 +6055,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -6004,9 +6086,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6026,7 +6108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6046,7 +6128,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6066,7 +6148,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6086,7 +6168,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6106,7 +6188,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6126,7 +6208,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6146,7 +6228,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6166,7 +6248,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6186,7 +6268,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6206,7 +6288,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -6226,7 +6308,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -6246,7 +6328,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -6266,7 +6348,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6286,7 +6368,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -6306,7 +6388,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -6326,7 +6408,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -6346,7 +6428,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -6366,7 +6448,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -6397,9 +6479,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6419,7 +6501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6439,7 +6521,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6459,7 +6541,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6479,7 +6561,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6499,7 +6581,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6519,7 +6601,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6539,7 +6621,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6559,7 +6641,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6579,7 +6661,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6599,7 +6681,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -6619,7 +6701,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -6639,7 +6721,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -6659,7 +6741,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6679,7 +6761,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -6699,7 +6781,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -6719,7 +6801,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -6739,7 +6821,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -6759,7 +6841,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -6790,9 +6872,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6812,7 +6894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6832,7 +6914,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6852,7 +6934,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6872,7 +6954,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6892,7 +6974,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6912,7 +6994,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6932,7 +7014,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6952,7 +7034,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6972,7 +7054,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6992,7 +7074,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -7012,7 +7094,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -7032,7 +7114,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -7052,7 +7134,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -7072,7 +7154,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -7092,7 +7174,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -7112,7 +7194,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -7132,7 +7214,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -7152,7 +7234,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -7182,16 +7264,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F194" sqref="F194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -7205,7 +7287,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7216,7 +7298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -7227,7 +7309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -7238,7 +7320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7249,7 +7331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -7260,7 +7342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7271,7 +7353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -7282,7 +7364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -7293,7 +7375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7304,7 +7386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -7315,7 +7397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -7326,7 +7408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -7337,7 +7419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -7348,7 +7430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -7359,7 +7441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -7370,7 +7452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -7381,7 +7463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -7392,7 +7474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -7403,7 +7485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -7414,7 +7496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -7425,7 +7507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -7436,7 +7518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -7447,7 +7529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -7458,7 +7540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -7469,7 +7551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -7480,7 +7562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -7491,7 +7573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7502,7 +7584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7513,7 +7595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -7524,7 +7606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -7535,7 +7617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -7546,7 +7628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -7557,7 +7639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -7568,7 +7650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -7579,7 +7661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -7590,7 +7672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -7601,7 +7683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -7612,7 +7694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -7623,7 +7705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -7634,7 +7716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -7645,7 +7727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -7656,7 +7738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -7667,7 +7749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -7678,7 +7760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -7689,7 +7771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -7700,7 +7782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -7711,7 +7793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -7722,7 +7804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -7733,7 +7815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -7744,7 +7826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -7755,7 +7837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -7766,7 +7848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -7777,7 +7859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -7788,7 +7870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -7799,7 +7881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -7810,7 +7892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -7821,7 +7903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -7832,7 +7914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -7843,7 +7925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -7854,7 +7936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -7865,7 +7947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -7876,7 +7958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -7887,7 +7969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -7898,7 +7980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -7909,7 +7991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -7920,7 +8002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -7931,7 +8013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -7942,7 +8024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -7953,7 +8035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -7964,7 +8046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -7975,7 +8057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -7986,7 +8068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -7997,7 +8079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -8008,7 +8090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -8019,7 +8101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -8030,7 +8112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -8041,7 +8123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -8052,7 +8134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -8063,7 +8145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -8074,7 +8156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -8085,7 +8167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -8096,7 +8178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -8107,7 +8189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -8118,7 +8200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -8129,7 +8211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -8140,7 +8222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -8151,7 +8233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -8162,7 +8244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -8173,7 +8255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -8184,7 +8266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -8195,7 +8277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -8206,7 +8288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -8217,7 +8299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -8228,7 +8310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -8239,7 +8321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -8250,7 +8332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -8261,7 +8343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -8272,7 +8354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -8283,7 +8365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -8294,7 +8376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -8305,7 +8387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -8316,7 +8398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -8327,7 +8409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>34</v>
       </c>
@@ -8338,7 +8420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>34</v>
       </c>
@@ -8349,7 +8431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>34</v>
       </c>
@@ -8360,7 +8442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>34</v>
       </c>
@@ -8371,7 +8453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -8382,7 +8464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -8393,7 +8475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -8404,7 +8486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>35</v>
       </c>
@@ -8415,7 +8497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -8426,7 +8508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -8437,7 +8519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -8448,7 +8530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -8459,7 +8541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>35</v>
       </c>
@@ -8470,7 +8552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>35</v>
       </c>
@@ -8481,7 +8563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>35</v>
       </c>
@@ -8492,7 +8574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -8503,7 +8585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -8514,7 +8596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -8525,7 +8607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -8536,7 +8618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -8547,7 +8629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -8558,7 +8640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -8569,7 +8651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -8580,7 +8662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -8591,7 +8673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>37</v>
       </c>
@@ -8602,7 +8684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>37</v>
       </c>
@@ -8613,7 +8695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>37</v>
       </c>
@@ -8624,7 +8706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -8635,7 +8717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -8646,7 +8728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>37</v>
       </c>
@@ -8657,7 +8739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -8668,7 +8750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -8679,7 +8761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -8690,7 +8772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -8701,7 +8783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>38</v>
       </c>
@@ -8712,7 +8794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>38</v>
       </c>
@@ -8723,7 +8805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -8734,7 +8816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>38</v>
       </c>
@@ -8745,7 +8827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>38</v>
       </c>
@@ -8756,7 +8838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -8767,7 +8849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -8778,7 +8860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>38</v>
       </c>
@@ -8789,7 +8871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -8800,7 +8882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -8811,7 +8893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -8822,7 +8904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>39</v>
       </c>
@@ -8833,7 +8915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -8844,7 +8926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -8855,7 +8937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -8866,7 +8948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>39</v>
       </c>
@@ -8877,7 +8959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -8888,7 +8970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -8899,7 +8981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -8910,7 +8992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>40</v>
       </c>
@@ -8921,7 +9003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>40</v>
       </c>
@@ -8932,7 +9014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>40</v>
       </c>
@@ -8943,7 +9025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>40</v>
       </c>
@@ -8954,7 +9036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>40</v>
       </c>
@@ -8965,7 +9047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>40</v>
       </c>
@@ -8976,7 +9058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>40</v>
       </c>
@@ -8987,7 +9069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>41</v>
       </c>
@@ -8998,7 +9080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -9009,7 +9091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>41</v>
       </c>
@@ -9020,7 +9102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>41</v>
       </c>
@@ -9031,7 +9113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>41</v>
       </c>
@@ -9042,7 +9124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>41</v>
       </c>
@@ -9053,7 +9135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>41</v>
       </c>
@@ -9064,7 +9146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>41</v>
       </c>
@@ -9075,7 +9157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>41</v>
       </c>
@@ -9086,7 +9168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>42</v>
       </c>
@@ -9097,7 +9179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -9108,7 +9190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -9119,7 +9201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>42</v>
       </c>
@@ -9130,7 +9212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>42</v>
       </c>
@@ -9141,7 +9223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>42</v>
       </c>
@@ -9152,7 +9234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -9163,7 +9245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>42</v>
       </c>
@@ -9174,7 +9256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>42</v>
       </c>
@@ -9185,7 +9267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>43</v>
       </c>
@@ -9196,7 +9278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>43</v>
       </c>
@@ -9207,7 +9289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>43</v>
       </c>
@@ -9218,7 +9300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>43</v>
       </c>
@@ -9229,7 +9311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -9240,7 +9322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>43</v>
       </c>
@@ -9251,7 +9333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>43</v>
       </c>
@@ -9262,7 +9344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>43</v>
       </c>
@@ -9273,7 +9355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>43</v>
       </c>
@@ -9284,7 +9366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -9295,7 +9377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -9306,7 +9388,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -9317,7 +9399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -9328,7 +9410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -9339,7 +9421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -9350,7 +9432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -9361,7 +9443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -9369,10 +9451,10 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -9387,6 +9469,7 @@
   <autoFilter ref="A1:C199" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="0">
       <filters>
+        <filter val="00_MARS"/>
         <filter val="09_ROK"/>
       </filters>
     </filterColumn>
@@ -9402,15 +9485,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A5CB3-5D4A-4441-A312-D5874411D0D3}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9433,7 +9516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9441,7 +9524,7 @@
         <v>2.3869907539859128</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -9453,7 +9536,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9461,7 +9544,7 @@
         <v>2.1225694700972362</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -9473,7 +9556,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -9481,7 +9564,7 @@
         <v>2.0263218139073729</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -9493,7 +9576,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -9501,7 +9584,7 @@
         <v>6.4334279185486025</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -9513,7 +9596,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -9521,7 +9604,7 @@
         <v>6.3814671262608726</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -9533,7 +9616,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -9541,7 +9624,7 @@
         <v>7.2043774337811719</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -9553,7 +9636,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -9561,7 +9644,7 @@
         <v>7.0805281123867445</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -9573,7 +9656,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -9581,7 +9664,7 @@
         <v>5.0658715366320806</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -9593,7 +9676,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -9601,7 +9684,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -9611,6 +9694,126 @@
       </c>
       <c r="F10" s="2">
         <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1000000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>5000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>35000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
@@ -9626,14 +9829,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9653,7 +9856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9673,7 +9876,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9693,7 +9896,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9713,7 +9916,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9733,7 +9936,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9753,7 +9956,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9773,7 +9976,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9793,7 +9996,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9813,7 +10016,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9833,7 +10036,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -9853,7 +10056,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -9873,7 +10076,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -9893,7 +10096,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -9913,7 +10116,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -9933,7 +10136,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -9953,7 +10156,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -9973,7 +10176,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -9993,7 +10196,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -10026,12 +10229,12 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -10051,7 +10254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10071,7 +10274,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10091,7 +10294,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10111,7 +10314,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10131,7 +10334,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10151,7 +10354,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10171,7 +10374,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10191,7 +10394,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -10211,7 +10414,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10231,7 +10434,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -10251,7 +10454,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -10271,7 +10474,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -10291,7 +10494,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -10311,7 +10514,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -10331,7 +10534,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -10351,7 +10554,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -10371,7 +10574,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -10391,7 +10594,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -10411,28 +10614,28 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F28" s="2"/>
     </row>
   </sheetData>
@@ -10446,9 +10649,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -10468,7 +10671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10488,7 +10691,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10508,7 +10711,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10528,7 +10731,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10548,7 +10751,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10568,7 +10771,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10588,7 +10791,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10608,7 +10811,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -10628,7 +10831,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10648,7 +10851,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -10668,7 +10871,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -10688,7 +10891,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -10708,7 +10911,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -10728,7 +10931,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -10748,7 +10951,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -10768,7 +10971,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -10788,7 +10991,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -10808,7 +11011,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -10839,9 +11042,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -10861,7 +11064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10881,7 +11084,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10901,7 +11104,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10921,7 +11124,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10941,7 +11144,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10961,7 +11164,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10981,7 +11184,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11001,7 +11204,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -11021,7 +11224,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -11041,7 +11244,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -11061,7 +11264,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -11081,7 +11284,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -11101,7 +11304,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -11121,7 +11324,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -11141,7 +11344,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -11161,7 +11364,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11181,7 +11384,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -11201,7 +11404,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -11232,9 +11435,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -11254,7 +11457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11274,7 +11477,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11294,7 +11497,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11314,7 +11517,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11334,7 +11537,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11354,7 +11557,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11374,7 +11577,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11394,7 +11597,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -11414,7 +11617,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -11434,7 +11637,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -11454,7 +11657,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -11474,7 +11677,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -11494,7 +11697,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -11514,7 +11717,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -11534,7 +11737,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -11554,7 +11757,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11574,7 +11777,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -11594,7 +11797,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>

--- a/config/biofuel_capacity_parameters.xlsx
+++ b/config/biofuel_capacity_parameters.xlsx
@@ -1,47 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aperc-my.sharepoint.com/personal/nabih_matussin_aperc_or_jp/Documents/Documents/APEC Energy Demand and Supply Outlook/9th Edition - 2025/Bioenergy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9655D2B5-35CE-4D72-AC2A-F31C0EA6AA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{6056A66C-EE65-48B4-8382-95827E4DF279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240B6277-A097-4704-8A64-925F85E09589}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="utilisation_rate" sheetId="2" r:id="rId2"/>
     <sheet name="simplified_economy_fuels" sheetId="3" r:id="rId3"/>
-    <sheet name="01_AUS_capacity" sheetId="4" r:id="rId4"/>
-    <sheet name="02_BD_capacity" sheetId="5" r:id="rId5"/>
-    <sheet name="03_CDA_capacity" sheetId="6" r:id="rId6"/>
-    <sheet name="04_CHL_capacity" sheetId="7" r:id="rId7"/>
-    <sheet name="05_PRC_capacity" sheetId="8" r:id="rId8"/>
-    <sheet name="06_HKC_capacity" sheetId="9" r:id="rId9"/>
-    <sheet name="07_INA_capacity" sheetId="10" r:id="rId10"/>
-    <sheet name="08_JPN_capacity" sheetId="11" r:id="rId11"/>
-    <sheet name="09_ROK_capacity" sheetId="12" r:id="rId12"/>
-    <sheet name="10_MAS_capacity" sheetId="13" r:id="rId13"/>
-    <sheet name="11_MEX_capacity" sheetId="14" r:id="rId14"/>
-    <sheet name="12_NZ_capacity" sheetId="15" r:id="rId15"/>
-    <sheet name="13_PNG_capacity" sheetId="16" r:id="rId16"/>
-    <sheet name="14_PE_capacity" sheetId="17" r:id="rId17"/>
-    <sheet name="15_PHL_capacity" sheetId="18" r:id="rId18"/>
-    <sheet name="16_RUS_capacity" sheetId="19" r:id="rId19"/>
-    <sheet name="17_SGP_capacity" sheetId="20" r:id="rId20"/>
-    <sheet name="18_CT_capacity" sheetId="21" r:id="rId21"/>
-    <sheet name="19_THA_capacity" sheetId="22" r:id="rId22"/>
-    <sheet name="20_USA_capacity" sheetId="23" r:id="rId23"/>
-    <sheet name="21_VN_capacity" sheetId="24" r:id="rId24"/>
+    <sheet name="00_MARS_capacity" sheetId="25" r:id="rId4"/>
+    <sheet name="01_AUS_capacity" sheetId="4" r:id="rId5"/>
+    <sheet name="02_BD_capacity" sheetId="5" r:id="rId6"/>
+    <sheet name="03_CDA_capacity" sheetId="6" r:id="rId7"/>
+    <sheet name="04_CHL_capacity" sheetId="7" r:id="rId8"/>
+    <sheet name="05_PRC_capacity" sheetId="8" r:id="rId9"/>
+    <sheet name="06_HKC_capacity" sheetId="9" r:id="rId10"/>
+    <sheet name="07_INA_capacity" sheetId="10" r:id="rId11"/>
+    <sheet name="08_JPN_capacity" sheetId="11" r:id="rId12"/>
+    <sheet name="09_ROK_capacity" sheetId="12" r:id="rId13"/>
+    <sheet name="10_MAS_capacity" sheetId="13" r:id="rId14"/>
+    <sheet name="11_MEX_capacity" sheetId="14" r:id="rId15"/>
+    <sheet name="12_NZ_capacity" sheetId="15" r:id="rId16"/>
+    <sheet name="13_PNG_capacity" sheetId="16" r:id="rId17"/>
+    <sheet name="14_PE_capacity" sheetId="17" r:id="rId18"/>
+    <sheet name="15_PHL_capacity" sheetId="18" r:id="rId19"/>
+    <sheet name="16_RUS_capacity" sheetId="19" r:id="rId20"/>
+    <sheet name="17_SGP_capacity" sheetId="20" r:id="rId21"/>
+    <sheet name="18_CT_capacity" sheetId="21" r:id="rId22"/>
+    <sheet name="19_THA_capacity" sheetId="22" r:id="rId23"/>
+    <sheet name="20_USA_capacity" sheetId="23" r:id="rId24"/>
+    <sheet name="21_VN_capacity" sheetId="24" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">simplified_economy_fuels!$A$1:$C$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">simplified_economy_fuels!$A$1:$C$199</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,13 +75,16 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Explanation of Methods:
+          <t xml:space="preserve">Explanation of Methods:
+-do_nothing : will do nothing. Ideal if you wat complete control over capcity. 
 - satisfy_all_demand_with_domestic_production:
-    The economy satisfies all demand for a fuel with domestic production. This eliminates imports and exports, making the economy self-sufficient.
+    The economy satisfies all demand for a fuel with domestic production. This eliminates imports and exports, making the economy self-sufficient.. If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code only adjusts prodcution if its LESS THAN CONSUMPTION. If the capacity that is recorded is more than consumption then it will jsut mean there are exports. 
 - satisfy_all_demand_with_domestic_production_RAMP:
-    Gradually increases domestic production over time to meet 100% of demand, avoiding sudden jumps in production.
+    Gradually increases domestic production over time to meet 100% of demand, avoiding sudden jumps in production. If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code only adjusts prodcution if its LESS THAN CONSUMPTION. If the capacity that is recorded is more than consumption then it will jsut mean there are exports. 
+- satisfy_all_demand_with_domestic_production_EXACT:
+    The economy satisfies all demand for a fuel with domestic production. This eliminates imports and exports, making the economy self-sufficient. It will also make it so production EXACTLY matches consumotion, so that even if production from previous years was more than consumption now, the production will decrease to match consumption (which would not happen in the other versions of this method).  If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code will adjust this if it needs to make production match consumption.
 - keep_same_ratio_of_production_to_consumption:
-    Maintains the existing ratio of exports, imports, and production, while ensuring all demand is met with domestic production.</t>
+    Maintains the existing ratio of exports, imports, and production, while ensuring all demand is met with domestic production. If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code will throw an error because it would otherwise overwrite that data to make the ratio of production to consumption the same for all years. </t>
         </r>
       </text>
     </comment>
@@ -76,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="59">
   <si>
     <t>EBT_biofuels_list</t>
   </si>
@@ -245,6 +262,15 @@
   <si>
     <t>other_biomass</t>
   </si>
+  <si>
+    <t>do_nothing</t>
+  </si>
+  <si>
+    <t>satisfy_all_demand_with_domestic_production_EXACT</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
 </sst>
 </file>
 
@@ -262,6 +288,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -295,15 +322,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,6 +362,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFABA03-2EC3-32B6-BF72-703D321907F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="419100"/>
+          <a:ext cx="2971800" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Please note that it is assumed that all</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> utilisation rates begin at 1 in the base year of the modelling. This is not strictly accurate but makes the code less complicated.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,9 +731,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -668,6 +796,399 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -1060,7 +1581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -1453,11 +1974,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1483,22 +2006,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.3869907539859128</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1506,10 +2029,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.1225694700972362</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1517,328 +2040,128 @@
       <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="F3">
-        <v>2022</v>
+      <c r="F3" s="2">
+        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.0263218139073729</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6.4334279185486025</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2026</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6.3814671262608726</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2027</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7.2043774337811719</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2023</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>7.0805281123867445</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2024</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5.0658715366320806</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19">
-        <v>2022</v>
+      <c r="F9" s="2">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -1846,7 +2169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2239,7 +2562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2632,7 +2955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3025,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3418,7 +3741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3811,7 +4134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -4204,7 +4527,387 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="30.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>2022</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>2022</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2030</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -4597,343 +5300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>2022</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>2022</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>2022</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>2022</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>2022</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>2022</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>2022</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>2022</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>2022</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>2022</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>2022</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>2022</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>2022</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>2022</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>2022</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>2022</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -5326,7 +5693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -5719,7 +6086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -6112,7 +6479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -6505,7 +6872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -6901,15 +7268,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="32.1796875" customWidth="1"/>
+    <col min="3" max="3" width="50.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6919,109 +7290,112 @@
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -7030,97 +7404,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -7129,67 +7503,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -7197,10 +7571,10 @@
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -7208,128 +7582,128 @@
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -7338,97 +7712,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -7437,34 +7811,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
@@ -7472,10 +7846,10 @@
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -7483,62 +7857,62 @@
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -7547,97 +7921,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>30</v>
       </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>32</v>
-      </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -7646,67 +8020,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
@@ -7714,139 +8088,139 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -7855,97 +8229,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>33</v>
       </c>
-      <c r="B91" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>34</v>
-      </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
@@ -7954,67 +8328,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>20</v>
@@ -8022,10 +8396,10 @@
     </row>
     <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
         <v>20</v>
@@ -8033,128 +8407,128 @@
     </row>
     <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C110" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C112" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -8163,97 +8537,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>35</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>36</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -8262,34 +8636,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
@@ -8297,172 +8671,172 @@
     </row>
     <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C139" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -8471,97 +8845,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C146" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C148" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C149" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -8572,7 +8946,7 @@
     </row>
     <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -8583,32 +8957,32 @@
     </row>
     <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
         <v>23</v>
@@ -8616,161 +8990,161 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C164" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C166" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C167" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -8779,67 +9153,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C173" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>42</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C175" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C176" t="s">
         <v>20</v>
@@ -8847,10 +9221,10 @@
     </row>
     <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>20</v>
@@ -8858,43 +9232,43 @@
     </row>
     <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
         <v>20</v>
@@ -8902,544 +9276,577 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>42</v>
-      </c>
-      <c r="B200" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>43</v>
-      </c>
-      <c r="B201" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>19</v>
-      </c>
-      <c r="B202" t="s">
-        <v>9</v>
-      </c>
-      <c r="C202" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>19</v>
-      </c>
-      <c r="B203" t="s">
-        <v>9</v>
-      </c>
-      <c r="C203" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>19</v>
-      </c>
-      <c r="B204" t="s">
-        <v>9</v>
-      </c>
-      <c r="C204" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>19</v>
-      </c>
-      <c r="B205" t="s">
-        <v>9</v>
-      </c>
-      <c r="C205" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>15</v>
-      </c>
-      <c r="B206" t="s">
-        <v>9</v>
-      </c>
-      <c r="C206" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>24</v>
-      </c>
-      <c r="B207" t="s">
-        <v>9</v>
-      </c>
-      <c r="C207" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>25</v>
-      </c>
-      <c r="B208" t="s">
-        <v>9</v>
-      </c>
-      <c r="C208" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>26</v>
-      </c>
-      <c r="B209" t="s">
-        <v>9</v>
-      </c>
-      <c r="C209" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>27</v>
-      </c>
-      <c r="B210" t="s">
-        <v>9</v>
-      </c>
-      <c r="C210" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>28</v>
-      </c>
-      <c r="B211" t="s">
-        <v>9</v>
-      </c>
-      <c r="C211" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>29</v>
-      </c>
-      <c r="B212" t="s">
-        <v>9</v>
-      </c>
-      <c r="C212" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>30</v>
-      </c>
-      <c r="B213" t="s">
-        <v>9</v>
-      </c>
-      <c r="C213" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>31</v>
-      </c>
-      <c r="B214" t="s">
-        <v>9</v>
-      </c>
-      <c r="C214" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>32</v>
-      </c>
-      <c r="B215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C215" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>33</v>
-      </c>
-      <c r="B216" t="s">
-        <v>9</v>
-      </c>
-      <c r="C216" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>34</v>
-      </c>
-      <c r="B217" t="s">
-        <v>9</v>
-      </c>
-      <c r="C217" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>35</v>
-      </c>
-      <c r="B218" t="s">
-        <v>9</v>
-      </c>
-      <c r="C218" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>36</v>
-      </c>
-      <c r="B219" t="s">
-        <v>9</v>
-      </c>
-      <c r="C219" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>37</v>
-      </c>
-      <c r="B220" t="s">
-        <v>9</v>
-      </c>
-      <c r="C220" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>38</v>
-      </c>
-      <c r="B221" t="s">
-        <v>9</v>
-      </c>
-      <c r="C221" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>39</v>
-      </c>
-      <c r="B222" t="s">
-        <v>9</v>
-      </c>
-      <c r="C222" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>40</v>
-      </c>
-      <c r="B223" t="s">
-        <v>9</v>
-      </c>
-      <c r="C223" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>41</v>
-      </c>
-      <c r="B224" t="s">
-        <v>9</v>
-      </c>
-      <c r="C224" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>42</v>
-      </c>
-      <c r="B225" t="s">
-        <v>9</v>
-      </c>
-      <c r="C225" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>43</v>
-      </c>
-      <c r="B226" t="s">
-        <v>9</v>
-      </c>
-      <c r="C226" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C226" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <autoFilter ref="A1:C199" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="01_AUS"/>
-        <filter val="02_BD"/>
-        <filter val="03_CDA"/>
-        <filter val="04_CHL"/>
-        <filter val="05_PRC"/>
-        <filter val="06_HKC"/>
-        <filter val="07_INA"/>
-        <filter val="08_JPN"/>
         <filter val="09_ROK"/>
-        <filter val="10_MAS"/>
-        <filter val="11_MEX"/>
-        <filter val="12_NZ"/>
-        <filter val="13_PNG"/>
-        <filter val="14_PE"/>
         <filter val="15_PHL"/>
-        <filter val="16_RUS"/>
-        <filter val="17_SGP"/>
         <filter val="18_CT"/>
-        <filter val="19_THA"/>
-        <filter val="20_USA"/>
         <filter val="21_VN"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="keep_same_ratio_of_production_to_consumption"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C190">
+      <sortCondition ref="A1:A190"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A5CB3-5D4A-4441-A312-D5874411D0D3}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="6" width="12.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2.3869907539859128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.1225694700972362</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.0263218139073729</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>6.4334279185486025</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>6.3814671262608726</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>7.2043774337811719</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>7.0805281123867445</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>5.0658715366320806</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1000000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>5000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>35000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -9810,399 +10217,6 @@
       </c>
       <c r="C19" t="s">
         <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19">
-        <v>2022</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -10220,6 +10234,428 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F28" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -10612,7 +11048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -11005,7 +11441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -11396,397 +11832,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19">
-        <v>2022</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/config/biofuel_capacity_parameters.xlsx
+++ b/config/biofuel_capacity_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aperc-my.sharepoint.com/personal/nabih_matussin_aperc_or_jp/Documents/Documents/APEC Energy Demand and Supply Outlook/9th Edition - 2025/Bioenergy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0402FC70-A044-4734-9053-591B7F6EE571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{6056A66C-EE65-48B4-8382-95827E4DF279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240B6277-A097-4704-8A64-925F85E09589}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="1380" windowWidth="21600" windowHeight="11235" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -732,57 +732,60 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -798,9 +801,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -820,7 +823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -840,7 +843,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -860,7 +863,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -880,7 +883,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -900,7 +903,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -920,7 +923,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -940,7 +943,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -960,7 +963,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -980,7 +983,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1191,9 +1194,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1584,9 +1587,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1976,12 +1979,12 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2172,9 +2175,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2565,9 +2568,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2958,9 +2961,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3080,7 +3083,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3120,7 +3123,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3200,7 +3203,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3351,9 +3354,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3713,7 +3716,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3744,9 +3747,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -4137,9 +4140,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4199,7 +4202,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4219,7 +4222,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4239,7 +4242,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4379,7 +4382,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -4399,7 +4402,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -4528,13 +4531,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="30.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4554,7 +4560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4571,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4588,7 +4594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4622,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4639,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4656,7 +4662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4690,7 +4696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4707,7 +4713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4724,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4741,7 +4747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4758,7 +4764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4775,7 +4781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -4792,7 +4798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4809,7 +4815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4843,7 +4849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -4860,7 +4866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4878,7 +4884,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4907,9 +4913,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5009,7 +5015,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5029,7 +5035,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5049,7 +5055,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5069,7 +5075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5129,7 +5135,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5149,7 +5155,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -5169,7 +5175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5189,7 +5195,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -5229,7 +5235,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5300,9 +5306,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5342,7 +5348,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5362,7 +5368,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5382,7 +5388,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5422,7 +5428,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5442,7 +5448,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5502,7 +5508,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5522,7 +5528,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5542,7 +5548,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5582,7 +5588,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -5622,7 +5628,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -5642,7 +5648,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -5662,7 +5668,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5693,9 +5699,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5715,7 +5721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5735,7 +5741,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5775,7 +5781,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5795,7 +5801,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5815,7 +5821,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5835,7 +5841,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5855,7 +5861,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5875,7 +5881,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5895,7 +5901,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5915,7 +5921,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5935,7 +5941,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5975,7 +5981,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -5995,7 +6001,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -6015,7 +6021,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -6035,7 +6041,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -6086,9 +6092,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6108,7 +6114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6128,7 +6134,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6148,7 +6154,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6168,7 +6174,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6188,7 +6194,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6208,7 +6214,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6228,7 +6234,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6248,7 +6254,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6288,7 +6294,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -6308,7 +6314,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -6328,7 +6334,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -6348,7 +6354,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6368,7 +6374,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -6388,7 +6394,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -6408,7 +6414,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -6428,7 +6434,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -6448,7 +6454,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -6479,9 +6485,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6501,7 +6507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6521,7 +6527,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6541,7 +6547,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6561,7 +6567,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6581,7 +6587,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6601,7 +6607,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6621,7 +6627,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6641,7 +6647,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6661,7 +6667,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6681,7 +6687,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -6701,7 +6707,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -6721,7 +6727,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -6741,7 +6747,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -6781,7 +6787,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -6801,7 +6807,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -6821,7 +6827,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -6841,7 +6847,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -6872,9 +6878,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6894,7 +6900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6914,7 +6920,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6934,7 +6940,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6954,7 +6960,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6994,7 +7000,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7014,7 +7020,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7054,7 +7060,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7074,7 +7080,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -7094,7 +7100,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -7114,7 +7120,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -7134,7 +7140,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -7154,7 +7160,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -7174,7 +7180,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -7194,7 +7200,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -7214,7 +7220,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -7264,16 +7270,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F194" sqref="F194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" customWidth="1"/>
+    <col min="3" max="3" width="50.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -7287,7 +7294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7295,10 +7302,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -7306,10 +7313,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -7317,10 +7324,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7328,10 +7335,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -7339,10 +7346,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7350,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -7361,10 +7368,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -7372,10 +7379,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7383,10 +7390,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -7397,7 +7404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -7408,7 +7415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -7419,7 +7426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -7430,7 +7437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -7441,7 +7448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -7452,7 +7459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -7463,7 +7470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -7474,7 +7481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -7485,7 +7492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -7496,7 +7503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -7507,7 +7514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -7518,7 +7525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -7529,7 +7536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -7540,7 +7547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -7551,7 +7558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -7562,7 +7569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -7573,7 +7580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7584,7 +7591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7595,7 +7602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -7606,7 +7613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -7617,7 +7624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -7628,7 +7635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -7639,7 +7646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -7650,7 +7657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -7661,7 +7668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -7672,7 +7679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -7683,7 +7690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -7694,7 +7701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -7705,7 +7712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -7716,7 +7723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -7727,7 +7734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -7738,7 +7745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -7749,7 +7756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -7760,7 +7767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -7771,7 +7778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -7782,7 +7789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -7793,7 +7800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -7804,7 +7811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -7815,7 +7822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -7826,7 +7833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -7837,7 +7844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -7848,7 +7855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -7859,7 +7866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -7870,7 +7877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -7881,7 +7888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -7892,7 +7899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -7903,7 +7910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -7914,7 +7921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -7925,7 +7932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -7936,7 +7943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -7947,7 +7954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -7958,7 +7965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -7969,7 +7976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -7980,7 +7987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -7991,7 +7998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -8002,7 +8009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -8013,7 +8020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -8024,7 +8031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -8035,7 +8042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -8046,7 +8053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -8057,7 +8064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -8068,7 +8075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -8079,7 +8086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -8087,10 +8094,10 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -8098,10 +8105,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -8109,10 +8116,10 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -8120,10 +8127,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -8131,10 +8138,10 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -8142,10 +8149,10 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -8153,10 +8160,10 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -8164,10 +8171,10 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -8175,10 +8182,10 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -8189,7 +8196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -8200,7 +8207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -8211,7 +8218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -8222,7 +8229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -8233,7 +8240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -8244,7 +8251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -8255,7 +8262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -8266,7 +8273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -8277,7 +8284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -8288,7 +8295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -8299,7 +8306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -8310,7 +8317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -8321,7 +8328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -8332,7 +8339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -8343,7 +8350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -8354,7 +8361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -8365,7 +8372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -8376,7 +8383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -8387,7 +8394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -8398,7 +8405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -8409,7 +8416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>34</v>
       </c>
@@ -8420,7 +8427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>34</v>
       </c>
@@ -8431,7 +8438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>34</v>
       </c>
@@ -8442,7 +8449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>34</v>
       </c>
@@ -8453,7 +8460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -8464,7 +8471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -8475,7 +8482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -8486,7 +8493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>35</v>
       </c>
@@ -8497,7 +8504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -8508,7 +8515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -8519,7 +8526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -8530,7 +8537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -8541,7 +8548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>35</v>
       </c>
@@ -8552,7 +8559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>35</v>
       </c>
@@ -8563,7 +8570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>35</v>
       </c>
@@ -8574,7 +8581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -8585,7 +8592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -8596,7 +8603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -8607,7 +8614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -8618,7 +8625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -8629,7 +8636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -8640,7 +8647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -8651,7 +8658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -8662,7 +8669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -8673,7 +8680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>37</v>
       </c>
@@ -8681,10 +8688,10 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>37</v>
       </c>
@@ -8692,10 +8699,10 @@
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>37</v>
       </c>
@@ -8703,10 +8710,10 @@
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -8714,10 +8721,10 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -8725,10 +8732,10 @@
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>37</v>
       </c>
@@ -8736,10 +8743,10 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -8747,10 +8754,10 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -8758,10 +8765,10 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -8769,10 +8776,10 @@
         <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -8780,10 +8787,10 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>38</v>
       </c>
@@ -8794,7 +8801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>38</v>
       </c>
@@ -8805,7 +8812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -8816,7 +8823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>38</v>
       </c>
@@ -8827,7 +8834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>38</v>
       </c>
@@ -8838,7 +8845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -8849,7 +8856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -8860,7 +8867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>38</v>
       </c>
@@ -8871,7 +8878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -8882,7 +8889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -8893,7 +8900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -8904,7 +8911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>39</v>
       </c>
@@ -8915,7 +8922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -8926,7 +8933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -8937,7 +8944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -8948,7 +8955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>39</v>
       </c>
@@ -8959,7 +8966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -8970,7 +8977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -8978,10 +8985,10 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -8989,10 +8996,10 @@
         <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>40</v>
       </c>
@@ -9000,10 +9007,10 @@
         <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>40</v>
       </c>
@@ -9011,10 +9018,10 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>40</v>
       </c>
@@ -9022,10 +9029,10 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>40</v>
       </c>
@@ -9033,10 +9040,10 @@
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>40</v>
       </c>
@@ -9044,10 +9051,10 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>40</v>
       </c>
@@ -9055,10 +9062,10 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>40</v>
       </c>
@@ -9066,10 +9073,10 @@
         <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>41</v>
       </c>
@@ -9080,7 +9087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -9091,7 +9098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>41</v>
       </c>
@@ -9102,7 +9109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>41</v>
       </c>
@@ -9113,7 +9120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>41</v>
       </c>
@@ -9124,7 +9131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>41</v>
       </c>
@@ -9135,7 +9142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>41</v>
       </c>
@@ -9146,7 +9153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>41</v>
       </c>
@@ -9157,7 +9164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>41</v>
       </c>
@@ -9168,7 +9175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>42</v>
       </c>
@@ -9179,7 +9186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -9190,7 +9197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -9201,7 +9208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>42</v>
       </c>
@@ -9212,7 +9219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>42</v>
       </c>
@@ -9223,7 +9230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>42</v>
       </c>
@@ -9234,7 +9241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -9245,7 +9252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>42</v>
       </c>
@@ -9256,7 +9263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>42</v>
       </c>
@@ -9267,7 +9274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>43</v>
       </c>
@@ -9275,10 +9282,10 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>43</v>
       </c>
@@ -9286,10 +9293,10 @@
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>43</v>
       </c>
@@ -9297,10 +9304,10 @@
         <v>3</v>
       </c>
       <c r="C184" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>43</v>
       </c>
@@ -9308,10 +9315,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -9319,10 +9326,10 @@
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>43</v>
       </c>
@@ -9330,10 +9337,10 @@
         <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>43</v>
       </c>
@@ -9341,10 +9348,10 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>43</v>
       </c>
@@ -9352,10 +9359,10 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>43</v>
       </c>
@@ -9363,10 +9370,10 @@
         <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -9377,7 +9384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -9388,7 +9395,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -9399,7 +9406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -9410,7 +9417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -9421,7 +9428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -9432,7 +9439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -9443,7 +9450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -9454,7 +9461,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -9469,8 +9476,10 @@
   <autoFilter ref="A1:C199" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="00_MARS"/>
         <filter val="09_ROK"/>
+        <filter val="15_PHL"/>
+        <filter val="18_CT"/>
+        <filter val="21_VN"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C190">
@@ -9488,12 +9497,15 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="6" width="12.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9516,7 +9528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9536,7 +9548,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9556,7 +9568,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -9576,7 +9588,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -9596,7 +9608,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -9616,7 +9628,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -9636,7 +9648,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -9656,7 +9668,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -9676,7 +9688,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -9696,7 +9708,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -9716,7 +9728,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -9736,7 +9748,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -9756,7 +9768,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -9776,7 +9788,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -9796,7 +9808,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -9829,14 +9841,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9856,7 +9868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9876,7 +9888,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9896,7 +9908,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9916,7 +9928,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9936,7 +9948,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9956,7 +9968,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9976,7 +9988,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9996,7 +10008,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -10016,7 +10028,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10036,7 +10048,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -10056,7 +10068,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -10076,7 +10088,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -10096,7 +10108,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -10116,7 +10128,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -10136,7 +10148,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -10156,7 +10168,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -10176,7 +10188,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -10196,7 +10208,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -10226,15 +10238,15 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -10254,7 +10266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10274,7 +10286,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10294,7 +10306,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10314,7 +10326,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10334,7 +10346,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10354,7 +10366,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10374,7 +10386,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10394,7 +10406,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -10414,7 +10426,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10434,7 +10446,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -10454,7 +10466,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -10474,7 +10486,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -10494,7 +10506,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -10514,7 +10526,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -10534,7 +10546,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -10554,7 +10566,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -10574,7 +10586,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -10594,7 +10606,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -10614,28 +10626,28 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
     </row>
   </sheetData>
@@ -10649,9 +10661,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -10671,7 +10683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10691,7 +10703,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10711,7 +10723,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10731,7 +10743,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10751,7 +10763,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10771,7 +10783,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10791,7 +10803,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10811,7 +10823,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -10831,7 +10843,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10851,7 +10863,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -10871,7 +10883,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -10891,7 +10903,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -10911,7 +10923,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -10931,7 +10943,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -10951,7 +10963,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -10971,7 +10983,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -10991,7 +11003,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -11011,7 +11023,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -11042,9 +11054,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -11064,7 +11076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11084,7 +11096,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11104,7 +11116,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11124,7 +11136,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11144,7 +11156,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11164,7 +11176,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11184,7 +11196,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11204,7 +11216,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -11224,7 +11236,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -11244,7 +11256,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -11264,7 +11276,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -11284,7 +11296,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -11304,7 +11316,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -11324,7 +11336,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -11344,7 +11356,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -11364,7 +11376,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11384,7 +11396,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -11404,7 +11416,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -11435,9 +11447,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -11457,7 +11469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11477,7 +11489,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11497,7 +11509,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11517,7 +11529,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11537,7 +11549,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11557,7 +11569,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11577,7 +11589,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11597,7 +11609,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -11617,7 +11629,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -11637,7 +11649,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -11657,7 +11669,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -11677,7 +11689,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -11697,7 +11709,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -11717,7 +11729,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -11737,7 +11749,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -11757,7 +11769,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11777,7 +11789,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -11797,7 +11809,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>

--- a/config/biofuel_capacity_parameters.xlsx
+++ b/config/biofuel_capacity_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C2C83-4C49-4A93-8CB0-4E6BE195C284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A3A7BA-D142-4A90-8587-BB73526E55C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <sheet name="21_VN_capacity" sheetId="24" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">simplified_economy_fuels!$A$1:$C$353</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">simplified_economy_fuels!$A$1:$C$309</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="64">
   <si>
     <t>EBT_biofuels_list</t>
   </si>
@@ -285,12 +285,6 @@
   </si>
   <si>
     <t>16_08_other_liquid_biofuels</t>
-  </si>
-  <si>
-    <t>15_solid_biomass_x</t>
-  </si>
-  <si>
-    <t>16_others_x</t>
   </si>
 </sst>
 </file>
@@ -767,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,14 +841,10 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="A16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7334,10 +7324,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F353"/>
+  <dimension ref="A1:F309"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7373,172 +7363,172 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>62</v>
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -7549,10 +7539,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
@@ -7560,10 +7550,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -7571,10 +7561,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
@@ -7582,10 +7572,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
@@ -7593,10 +7583,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
@@ -7604,13 +7594,13 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7618,7 +7608,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
@@ -7626,10 +7616,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
@@ -7637,10 +7627,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -7648,10 +7638,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
@@ -7659,10 +7649,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
@@ -7670,10 +7660,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>63</v>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
@@ -7681,10 +7671,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>62</v>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -7692,10 +7682,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -7703,10 +7693,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
@@ -7714,10 +7704,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
@@ -7725,7 +7715,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -7736,10 +7726,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -7747,10 +7737,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>57</v>
@@ -7758,10 +7748,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
@@ -7769,10 +7759,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>57</v>
@@ -7780,10 +7770,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>57</v>
@@ -7791,10 +7781,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>57</v>
@@ -7802,10 +7792,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -7813,10 +7803,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
@@ -7824,10 +7814,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -7835,10 +7825,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
@@ -7846,21 +7836,21 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
@@ -7870,8 +7860,8 @@
       <c r="A48" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>64</v>
+      <c r="B48" t="s">
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
@@ -7879,10 +7869,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
@@ -7890,10 +7880,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -7901,10 +7891,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
@@ -7912,7 +7902,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -7923,10 +7913,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
@@ -7934,10 +7924,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -7945,10 +7935,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -7956,10 +7946,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
@@ -7967,10 +7957,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>57</v>
@@ -7978,10 +7968,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>57</v>
@@ -7989,10 +7979,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
@@ -8000,10 +7990,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>60</v>
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>57</v>
@@ -8011,10 +8001,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>57</v>
@@ -8022,10 +8012,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>57</v>
@@ -8033,10 +8023,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>62</v>
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>57</v>
@@ -8044,10 +8034,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>57</v>
@@ -8055,10 +8045,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>57</v>
@@ -8066,10 +8056,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>57</v>
@@ -8077,10 +8067,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>57</v>
@@ -8088,18 +8078,18 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -8110,10 +8100,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>57</v>
@@ -8121,10 +8111,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>57</v>
@@ -8135,7 +8125,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>57</v>
@@ -8143,10 +8133,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>57</v>
@@ -8154,10 +8144,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>57</v>
@@ -8165,10 +8155,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>57</v>
@@ -8176,10 +8166,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>57</v>
@@ -8187,10 +8177,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>26</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>57</v>
@@ -8198,10 +8188,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>57</v>
@@ -8209,10 +8199,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>57</v>
@@ -8220,10 +8210,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>64</v>
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>57</v>
@@ -8231,10 +8221,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>57</v>
@@ -8242,10 +8232,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>57</v>
@@ -8253,10 +8243,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>57</v>
@@ -8264,10 +8254,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>57</v>
@@ -8275,7 +8265,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -8286,10 +8276,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>57</v>
@@ -8297,10 +8287,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>57</v>
@@ -8308,10 +8298,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B88" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>57</v>
@@ -8319,10 +8309,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>57</v>
@@ -8330,21 +8320,21 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
       </c>
       <c r="C91" t="s">
         <v>57</v>
@@ -8352,10 +8342,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
       </c>
       <c r="C92" t="s">
         <v>57</v>
@@ -8363,10 +8353,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
       </c>
       <c r="C93" t="s">
         <v>57</v>
@@ -8374,10 +8364,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>63</v>
+        <v>26</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
       </c>
       <c r="C94" t="s">
         <v>57</v>
@@ -8387,8 +8377,8 @@
       <c r="A95" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>62</v>
+      <c r="B95" t="s">
+        <v>9</v>
       </c>
       <c r="C95" t="s">
         <v>57</v>
@@ -8396,10 +8386,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
       </c>
       <c r="C96" t="s">
         <v>57</v>
@@ -8407,10 +8397,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>65</v>
+        <v>29</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
       </c>
       <c r="C97" t="s">
         <v>57</v>
@@ -8418,10 +8408,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
         <v>57</v>
@@ -8429,10 +8419,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
         <v>57</v>
@@ -8440,10 +8430,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
         <v>57</v>
@@ -8451,10 +8441,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
         <v>57</v>
@@ -8462,7 +8452,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
@@ -8473,10 +8463,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
         <v>57</v>
@@ -8484,10 +8474,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
         <v>57</v>
@@ -8495,10 +8485,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
         <v>57</v>
@@ -8506,10 +8496,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
         <v>57</v>
@@ -8517,10 +8507,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>28</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
       </c>
       <c r="C107" t="s">
         <v>57</v>
@@ -8528,10 +8518,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
       </c>
       <c r="C108" t="s">
         <v>57</v>
@@ -8539,10 +8529,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>28</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
       </c>
       <c r="C109" t="s">
         <v>57</v>
@@ -8550,10 +8540,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>28</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
       </c>
       <c r="C110" t="s">
         <v>57</v>
@@ -8561,10 +8551,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>28</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
       </c>
       <c r="C111" t="s">
         <v>57</v>
@@ -8572,21 +8562,21 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
       </c>
       <c r="C113" t="s">
         <v>57</v>
@@ -8594,10 +8584,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
         <v>57</v>
@@ -8605,10 +8595,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
         <v>57</v>
@@ -8616,10 +8606,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
         <v>57</v>
@@ -8627,10 +8617,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
         <v>57</v>
@@ -8638,10 +8628,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C118" t="s">
         <v>57</v>
@@ -8660,10 +8650,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
         <v>57</v>
@@ -8671,10 +8661,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
         <v>57</v>
@@ -8682,10 +8672,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
         <v>57</v>
@@ -8693,10 +8683,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>29</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
       </c>
       <c r="C123" t="s">
         <v>57</v>
@@ -8704,10 +8694,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>29</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
       </c>
       <c r="C124" t="s">
         <v>57</v>
@@ -8715,10 +8705,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>29</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
       </c>
       <c r="C125" t="s">
         <v>57</v>
@@ -8726,10 +8716,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>29</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>63</v>
+        <v>36</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
       </c>
       <c r="C126" t="s">
         <v>57</v>
@@ -8737,10 +8727,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>29</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
       </c>
       <c r="C127" t="s">
         <v>57</v>
@@ -8748,10 +8738,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>29</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>64</v>
+        <v>38</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
       </c>
       <c r="C128" t="s">
         <v>57</v>
@@ -8759,10 +8749,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>29</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
       </c>
       <c r="C129" t="s">
         <v>57</v>
@@ -8770,10 +8760,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
         <v>57</v>
@@ -8781,10 +8771,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
         <v>57</v>
@@ -8792,10 +8782,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
         <v>57</v>
@@ -8803,10 +8793,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
         <v>57</v>
@@ -8814,21 +8804,21 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>30</v>
-      </c>
-      <c r="B134" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C134" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>30</v>
-      </c>
-      <c r="B135" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C135" t="s">
         <v>57</v>
@@ -8836,10 +8826,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>30</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C136" t="s">
         <v>57</v>
@@ -8847,10 +8837,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>30</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C137" t="s">
         <v>57</v>
@@ -8858,10 +8848,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>30</v>
-      </c>
-      <c r="B138" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C138" t="s">
         <v>57</v>
@@ -8869,7 +8859,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>59</v>
@@ -8880,10 +8870,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C140" t="s">
         <v>57</v>
@@ -8891,10 +8881,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
         <v>57</v>
@@ -8905,7 +8895,7 @@
         <v>30</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C142" t="s">
         <v>57</v>
@@ -8913,10 +8903,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C143" t="s">
         <v>57</v>
@@ -8924,10 +8914,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>30</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C144" t="s">
         <v>57</v>
@@ -8935,10 +8925,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>30</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C145" t="s">
         <v>57</v>
@@ -8946,10 +8936,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>31</v>
-      </c>
-      <c r="B146" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C146" t="s">
         <v>57</v>
@@ -8957,10 +8947,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>31</v>
-      </c>
-      <c r="B147" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C147" t="s">
         <v>57</v>
@@ -8968,10 +8958,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>31</v>
-      </c>
-      <c r="B148" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C148" t="s">
         <v>57</v>
@@ -8979,10 +8969,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>31</v>
-      </c>
-      <c r="B149" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C149" t="s">
         <v>57</v>
@@ -8990,10 +8980,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>31</v>
-      </c>
-      <c r="B150" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C150" t="s">
         <v>57</v>
@@ -9001,10 +8991,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>31</v>
-      </c>
-      <c r="B151" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C151" t="s">
         <v>57</v>
@@ -9012,10 +9002,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>31</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C152" t="s">
         <v>57</v>
@@ -9023,10 +9013,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>31</v>
-      </c>
-      <c r="B153" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C153" t="s">
         <v>57</v>
@@ -9034,10 +9024,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>31</v>
-      </c>
-      <c r="B154" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C154" t="s">
         <v>57</v>
@@ -9045,7 +9035,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>59</v>
@@ -9056,21 +9046,21 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C156" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C157" t="s">
         <v>57</v>
@@ -9078,10 +9068,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C158" t="s">
         <v>57</v>
@@ -9089,10 +9079,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C159" t="s">
         <v>57</v>
@@ -9100,10 +9090,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>31</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C160" t="s">
         <v>57</v>
@@ -9111,10 +9101,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>31</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C161" t="s">
         <v>57</v>
@@ -9122,10 +9112,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>32</v>
-      </c>
-      <c r="B162" t="s">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C162" t="s">
         <v>57</v>
@@ -9133,10 +9123,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>32</v>
-      </c>
-      <c r="B163" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C163" t="s">
         <v>57</v>
@@ -9144,10 +9134,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>32</v>
-      </c>
-      <c r="B164" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C164" t="s">
         <v>57</v>
@@ -9155,10 +9145,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>32</v>
-      </c>
-      <c r="B165" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C165" t="s">
         <v>57</v>
@@ -9168,8 +9158,8 @@
       <c r="A166" t="s">
         <v>32</v>
       </c>
-      <c r="B166" t="s">
-        <v>9</v>
+      <c r="B166" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C166" t="s">
         <v>57</v>
@@ -9177,10 +9167,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>32</v>
-      </c>
-      <c r="B167" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C167" t="s">
         <v>57</v>
@@ -9188,10 +9178,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>32</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C168" t="s">
         <v>57</v>
@@ -9199,10 +9189,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>32</v>
-      </c>
-      <c r="B169" t="s">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C169" t="s">
         <v>57</v>
@@ -9210,10 +9200,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>32</v>
-      </c>
-      <c r="B170" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C170" t="s">
         <v>57</v>
@@ -9221,10 +9211,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C171" t="s">
         <v>57</v>
@@ -9232,7 +9222,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>60</v>
@@ -9243,10 +9233,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C173" t="s">
         <v>57</v>
@@ -9254,10 +9244,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C174" t="s">
         <v>57</v>
@@ -9265,10 +9255,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C175" t="s">
         <v>57</v>
@@ -9276,10 +9266,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>32</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C176" t="s">
         <v>57</v>
@@ -9287,10 +9277,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>32</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C177" t="s">
         <v>57</v>
@@ -9298,21 +9288,21 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>33</v>
-      </c>
-      <c r="B178" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C178" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>33</v>
-      </c>
-      <c r="B179" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C179" t="s">
         <v>57</v>
@@ -9320,10 +9310,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>33</v>
-      </c>
-      <c r="B180" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C180" t="s">
         <v>57</v>
@@ -9331,10 +9321,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>33</v>
-      </c>
-      <c r="B181" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C181" t="s">
         <v>57</v>
@@ -9342,10 +9332,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>33</v>
-      </c>
-      <c r="B182" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C182" t="s">
         <v>57</v>
@@ -9353,10 +9343,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>33</v>
-      </c>
-      <c r="B183" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C183" t="s">
         <v>57</v>
@@ -9364,10 +9354,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>33</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C184" t="s">
         <v>57</v>
@@ -9375,10 +9365,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>33</v>
-      </c>
-      <c r="B185" t="s">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C185" t="s">
         <v>57</v>
@@ -9386,10 +9376,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>33</v>
-      </c>
-      <c r="B186" t="s">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C186" t="s">
         <v>57</v>
@@ -9397,10 +9387,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C187" t="s">
         <v>57</v>
@@ -9408,10 +9398,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C188" t="s">
         <v>57</v>
@@ -9430,10 +9420,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C190" t="s">
         <v>57</v>
@@ -9441,10 +9431,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C191" t="s">
         <v>57</v>
@@ -9452,10 +9442,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>33</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C192" t="s">
         <v>57</v>
@@ -9463,10 +9453,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>33</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C193" t="s">
         <v>57</v>
@@ -9474,10 +9464,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>34</v>
-      </c>
-      <c r="B194" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C194" t="s">
         <v>57</v>
@@ -9485,10 +9475,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>34</v>
-      </c>
-      <c r="B195" t="s">
-        <v>6</v>
+        <v>39</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C195" t="s">
         <v>57</v>
@@ -9496,10 +9486,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>34</v>
-      </c>
-      <c r="B196" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C196" t="s">
         <v>57</v>
@@ -9507,10 +9497,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>34</v>
-      </c>
-      <c r="B197" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C197" t="s">
         <v>57</v>
@@ -9518,10 +9508,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>34</v>
-      </c>
-      <c r="B198" t="s">
-        <v>9</v>
+        <v>42</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C198" t="s">
         <v>57</v>
@@ -9529,10 +9519,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>34</v>
-      </c>
-      <c r="B199" t="s">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C199" t="s">
         <v>57</v>
@@ -9540,21 +9530,21 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B200" t="s">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
         <v>57</v>
@@ -9562,10 +9552,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C202" t="s">
         <v>57</v>
@@ -9573,10 +9563,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>34</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
       </c>
       <c r="C203" t="s">
         <v>57</v>
@@ -9584,10 +9574,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>34</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
       </c>
       <c r="C204" t="s">
         <v>57</v>
@@ -9595,10 +9585,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>34</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>61</v>
+        <v>27</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
       </c>
       <c r="C205" t="s">
         <v>57</v>
@@ -9606,10 +9596,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>34</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>63</v>
+        <v>28</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
       </c>
       <c r="C206" t="s">
         <v>57</v>
@@ -9617,10 +9607,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>34</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>62</v>
+        <v>29</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
       </c>
       <c r="C207" t="s">
         <v>57</v>
@@ -9628,10 +9618,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>34</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
       </c>
       <c r="C208" t="s">
         <v>57</v>
@@ -9639,10 +9629,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>34</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
       </c>
       <c r="C209" t="s">
         <v>57</v>
@@ -9650,10 +9640,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C210" t="s">
         <v>57</v>
@@ -9661,10 +9651,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C211" t="s">
         <v>57</v>
@@ -9672,10 +9662,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C212" t="s">
         <v>57</v>
@@ -9686,7 +9676,7 @@
         <v>35</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C213" t="s">
         <v>57</v>
@@ -9694,10 +9684,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C214" t="s">
         <v>57</v>
@@ -9705,10 +9695,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B215" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C215" t="s">
         <v>57</v>
@@ -9716,7 +9706,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B216" t="s">
         <v>1</v>
@@ -9727,10 +9717,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B217" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C217" t="s">
         <v>57</v>
@@ -9738,10 +9728,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C218" t="s">
         <v>57</v>
@@ -9749,10 +9739,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>35</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1</v>
       </c>
       <c r="C219" t="s">
         <v>57</v>
@@ -9760,10 +9750,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>35</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1</v>
       </c>
       <c r="C220" t="s">
         <v>57</v>
@@ -9771,10 +9761,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>35</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
       </c>
       <c r="C221" t="s">
         <v>57</v>
@@ -9782,21 +9772,21 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>35</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>35</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2</v>
       </c>
       <c r="C223" t="s">
         <v>57</v>
@@ -9804,10 +9794,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>35</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>64</v>
+        <v>24</v>
+      </c>
+      <c r="B224" t="s">
+        <v>2</v>
       </c>
       <c r="C224" t="s">
         <v>57</v>
@@ -9815,10 +9805,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>35</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2</v>
       </c>
       <c r="C225" t="s">
         <v>57</v>
@@ -9826,10 +9816,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C226" t="s">
         <v>57</v>
@@ -9837,10 +9827,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C227" t="s">
         <v>57</v>
@@ -9848,10 +9838,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C228" t="s">
         <v>57</v>
@@ -9859,10 +9849,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C229" t="s">
         <v>57</v>
@@ -9870,10 +9860,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C230" t="s">
         <v>57</v>
@@ -9881,10 +9871,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B231" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C231" t="s">
         <v>57</v>
@@ -9892,10 +9882,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B232" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C232" t="s">
         <v>57</v>
@@ -9903,7 +9893,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
@@ -9914,10 +9904,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234" t="s">
         <v>57</v>
@@ -9925,10 +9915,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>36</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2</v>
       </c>
       <c r="C235" t="s">
         <v>57</v>
@@ -9938,8 +9928,8 @@
       <c r="A236" t="s">
         <v>36</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>60</v>
+      <c r="B236" t="s">
+        <v>2</v>
       </c>
       <c r="C236" t="s">
         <v>57</v>
@@ -9947,10 +9937,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>36</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="B237" t="s">
+        <v>2</v>
       </c>
       <c r="C237" t="s">
         <v>57</v>
@@ -9958,10 +9948,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>36</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2</v>
       </c>
       <c r="C238" t="s">
         <v>57</v>
@@ -9969,10 +9959,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>36</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>62</v>
+        <v>39</v>
+      </c>
+      <c r="B239" t="s">
+        <v>2</v>
       </c>
       <c r="C239" t="s">
         <v>57</v>
@@ -9980,10 +9970,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>36</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="B240" t="s">
+        <v>2</v>
       </c>
       <c r="C240" t="s">
         <v>57</v>
@@ -9991,10 +9981,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>36</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="B241" t="s">
+        <v>2</v>
       </c>
       <c r="C241" t="s">
         <v>57</v>
@@ -10002,10 +9992,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C242" t="s">
         <v>57</v>
@@ -10013,10 +10003,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C243" t="s">
         <v>57</v>
@@ -10024,21 +10014,21 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C244" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C245" t="s">
         <v>57</v>
@@ -10046,10 +10036,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C246" t="s">
         <v>57</v>
@@ -10057,10 +10047,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B247" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C247" t="s">
         <v>57</v>
@@ -10068,10 +10058,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B248" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C248" t="s">
         <v>57</v>
@@ -10079,10 +10069,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B249" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C249" t="s">
         <v>57</v>
@@ -10090,7 +10080,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
@@ -10101,10 +10091,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>37</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3</v>
       </c>
       <c r="C251" t="s">
         <v>57</v>
@@ -10112,10 +10102,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>37</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="B252" t="s">
+        <v>3</v>
       </c>
       <c r="C252" t="s">
         <v>57</v>
@@ -10123,10 +10113,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>37</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3</v>
       </c>
       <c r="C253" t="s">
         <v>57</v>
@@ -10134,10 +10124,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>37</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3</v>
       </c>
       <c r="C254" t="s">
         <v>57</v>
@@ -10145,10 +10135,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>37</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="B255" t="s">
+        <v>3</v>
       </c>
       <c r="C255" t="s">
         <v>57</v>
@@ -10156,10 +10146,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>37</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>64</v>
+        <v>34</v>
+      </c>
+      <c r="B256" t="s">
+        <v>3</v>
       </c>
       <c r="C256" t="s">
         <v>57</v>
@@ -10167,10 +10157,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>37</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3</v>
       </c>
       <c r="C257" t="s">
         <v>57</v>
@@ -10178,10 +10168,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C258" t="s">
         <v>57</v>
@@ -10189,10 +10179,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C259" t="s">
         <v>57</v>
@@ -10203,7 +10193,7 @@
         <v>38</v>
       </c>
       <c r="B260" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C260" t="s">
         <v>57</v>
@@ -10211,10 +10201,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B261" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C261" t="s">
         <v>57</v>
@@ -10222,10 +10212,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B262" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C262" t="s">
         <v>57</v>
@@ -10233,10 +10223,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C263" t="s">
         <v>57</v>
@@ -10244,10 +10234,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B264" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C264" t="s">
         <v>57</v>
@@ -10255,10 +10245,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B265" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C265" t="s">
         <v>57</v>
@@ -10266,21 +10256,21 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>38</v>
-      </c>
-      <c r="B266" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C266" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C267" t="s">
         <v>57</v>
@@ -10288,10 +10278,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C268" t="s">
         <v>57</v>
@@ -10299,10 +10289,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C269" t="s">
         <v>57</v>
@@ -10310,7 +10300,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>63</v>
@@ -10321,10 +10311,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C271" t="s">
         <v>57</v>
@@ -10332,161 +10322,163 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>28</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C272" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>29</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C273" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>30</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C274" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>31</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C275" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>32</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C276" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>33</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C277" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>34</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C278" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>35</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C279" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>36</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C280" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>37</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C281" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>38</v>
       </c>
-      <c r="B272" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C272" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>38</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C273" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>39</v>
-      </c>
-      <c r="B274" t="s">
-        <v>5</v>
-      </c>
-      <c r="C274" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>39</v>
-      </c>
-      <c r="B275" t="s">
-        <v>6</v>
-      </c>
-      <c r="C275" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>39</v>
-      </c>
-      <c r="B276" t="s">
-        <v>7</v>
-      </c>
-      <c r="C276" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>39</v>
-      </c>
-      <c r="B277" t="s">
-        <v>8</v>
-      </c>
-      <c r="C277" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>39</v>
-      </c>
-      <c r="B278" t="s">
-        <v>9</v>
-      </c>
-      <c r="C278" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>39</v>
-      </c>
-      <c r="B279" t="s">
-        <v>4</v>
-      </c>
-      <c r="C279" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>39</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1</v>
-      </c>
-      <c r="C280" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>39</v>
-      </c>
-      <c r="B281" t="s">
-        <v>2</v>
-      </c>
-      <c r="C281" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>39</v>
-      </c>
-      <c r="B282" t="s">
-        <v>3</v>
+      <c r="B282" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C282" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>39</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C283" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F283" s="5"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C284" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F284" s="5"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C285" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>63</v>
@@ -10495,34 +10487,34 @@
         <v>57</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B287" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C287" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>19</v>
+      </c>
+      <c r="B288" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C287" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>39</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="C288" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>39</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C289" t="s">
         <v>57</v>
@@ -10530,10 +10522,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>40</v>
-      </c>
-      <c r="B290" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C290" t="s">
         <v>57</v>
@@ -10541,10 +10533,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>40</v>
-      </c>
-      <c r="B291" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C291" t="s">
         <v>57</v>
@@ -10552,10 +10544,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>40</v>
-      </c>
-      <c r="B292" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C292" t="s">
         <v>57</v>
@@ -10563,10 +10555,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>40</v>
-      </c>
-      <c r="B293" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C293" t="s">
         <v>57</v>
@@ -10574,10 +10566,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>40</v>
-      </c>
-      <c r="B294" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C294" t="s">
         <v>57</v>
@@ -10585,10 +10577,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>40</v>
-      </c>
-      <c r="B295" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C295" t="s">
         <v>57</v>
@@ -10596,10 +10588,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>40</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C296" t="s">
         <v>57</v>
@@ -10607,10 +10599,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>40</v>
-      </c>
-      <c r="B297" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C297" t="s">
         <v>57</v>
@@ -10618,10 +10610,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>40</v>
-      </c>
-      <c r="B298" t="s">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C298" t="s">
         <v>57</v>
@@ -10629,10 +10621,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C299" t="s">
         <v>57</v>
@@ -10640,10 +10632,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C300" t="s">
         <v>57</v>
@@ -10651,10 +10643,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C301" t="s">
         <v>57</v>
@@ -10662,10 +10654,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C302" t="s">
         <v>57</v>
@@ -10673,7 +10665,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>62</v>
@@ -10684,560 +10676,74 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>38</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C304" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>39</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C305" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>40</v>
       </c>
-      <c r="B304" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C304" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>40</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C305" t="s">
-        <v>57</v>
-      </c>
-      <c r="F305" s="5"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>41</v>
-      </c>
-      <c r="B306" t="s">
-        <v>5</v>
+      <c r="B306" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C306" t="s">
         <v>57</v>
       </c>
-      <c r="F306" s="5"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>41</v>
       </c>
-      <c r="B307" t="s">
-        <v>6</v>
+      <c r="B307" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C307" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>41</v>
-      </c>
-      <c r="B308" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C308" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>41</v>
-      </c>
-      <c r="B309" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C309" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>41</v>
-      </c>
-      <c r="B310" t="s">
-        <v>9</v>
-      </c>
-      <c r="C310" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>41</v>
-      </c>
-      <c r="B311" t="s">
-        <v>4</v>
-      </c>
-      <c r="C311" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>41</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1</v>
-      </c>
-      <c r="C312" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>41</v>
-      </c>
-      <c r="B313" t="s">
-        <v>2</v>
-      </c>
-      <c r="C313" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>41</v>
-      </c>
-      <c r="B314" t="s">
-        <v>3</v>
-      </c>
-      <c r="C314" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>41</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C315" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>41</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C316" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>41</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C317" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>41</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C318" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>41</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C319" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>41</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C320" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>41</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C321" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>42</v>
-      </c>
-      <c r="B322" t="s">
-        <v>5</v>
-      </c>
-      <c r="C322" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>42</v>
-      </c>
-      <c r="B323" t="s">
-        <v>6</v>
-      </c>
-      <c r="C323" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>42</v>
-      </c>
-      <c r="B324" t="s">
-        <v>7</v>
-      </c>
-      <c r="C324" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>42</v>
-      </c>
-      <c r="B325" t="s">
-        <v>8</v>
-      </c>
-      <c r="C325" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>42</v>
-      </c>
-      <c r="B326" t="s">
-        <v>9</v>
-      </c>
-      <c r="C326" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>42</v>
-      </c>
-      <c r="B327" t="s">
-        <v>4</v>
-      </c>
-      <c r="C327" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>42</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1</v>
-      </c>
-      <c r="C328" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>42</v>
-      </c>
-      <c r="B329" t="s">
-        <v>2</v>
-      </c>
-      <c r="C329" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>42</v>
-      </c>
-      <c r="B330" t="s">
-        <v>3</v>
-      </c>
-      <c r="C330" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>42</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C331" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>42</v>
-      </c>
-      <c r="B332" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C332" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>42</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C333" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>42</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C334" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>42</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C335" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>42</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C336" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>42</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C337" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>43</v>
-      </c>
-      <c r="B338" t="s">
-        <v>5</v>
-      </c>
-      <c r="C338" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>43</v>
-      </c>
-      <c r="B339" t="s">
-        <v>6</v>
-      </c>
-      <c r="C339" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>43</v>
-      </c>
-      <c r="B340" t="s">
-        <v>7</v>
-      </c>
-      <c r="C340" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>43</v>
-      </c>
-      <c r="B341" t="s">
-        <v>8</v>
-      </c>
-      <c r="C341" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>43</v>
-      </c>
-      <c r="B342" t="s">
-        <v>9</v>
-      </c>
-      <c r="C342" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>43</v>
-      </c>
-      <c r="B343" t="s">
-        <v>4</v>
-      </c>
-      <c r="C343" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>43</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1</v>
-      </c>
-      <c r="C344" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>43</v>
-      </c>
-      <c r="B345" t="s">
-        <v>2</v>
-      </c>
-      <c r="C345" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>43</v>
-      </c>
-      <c r="B346" t="s">
-        <v>3</v>
-      </c>
-      <c r="C346" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>43</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C347" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>43</v>
-      </c>
-      <c r="B348" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C348" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>43</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C349" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>43</v>
-      </c>
-      <c r="B350" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C350" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>43</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C351" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>43</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C352" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>43</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C353" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C353" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C353">
-      <sortCondition ref="A1:A353"/>
+  <autoFilter ref="A1:C309" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C309">
+      <sortCondition ref="B1:B309"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config/biofuel_capacity_parameters.xlsx
+++ b/config/biofuel_capacity_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A3A7BA-D142-4A90-8587-BB73526E55C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EFFDEF-A620-4F7C-B29B-B8F83427BE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="66">
   <si>
     <t>EBT_biofuels_list</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>16_08_other_liquid_biofuels</t>
+  </si>
+  <si>
+    <t>16_others_unallocated</t>
+  </si>
+  <si>
+    <t>15_solid_biomass_unallocated</t>
   </si>
 </sst>
 </file>
@@ -761,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,10 +847,14 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7324,10 +7334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F309"/>
+  <dimension ref="A1:F353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10737,6 +10747,490 @@
         <v>62</v>
       </c>
       <c r="C309" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>19</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C310" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C311" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>24</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C312" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>25</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C313" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>26</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C314" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>27</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C315" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>28</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C316" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>29</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C317" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>30</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C318" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>31</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C319" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>32</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C320" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>33</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C321" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>34</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C322" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>35</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C323" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>36</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C324" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>37</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C325" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>38</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C326" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>39</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C327" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>40</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C328" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>41</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C329" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>42</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C330" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>43</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C331" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>19</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C332" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C333" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>24</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C334" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>25</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C335" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>26</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C336" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>27</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C337" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>28</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C338" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>29</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C339" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>30</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C340" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>31</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C341" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>32</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C342" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>33</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C343" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>34</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C344" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>35</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C345" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>36</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C346" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>37</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C347" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>38</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C348" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>39</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C349" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>40</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C350" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>41</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C351" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>42</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C352" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>43</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C353" t="s">
         <v>57</v>
       </c>
     </row>
